--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -451,20 +451,14 @@
         <v>28.86</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>29</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>28.98</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>29.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>29.16</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>29.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>29.13999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>29.11999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>29.13999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>29.13999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>29.15999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>29.21999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1071,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1149,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1188,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1227,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1266,12 +1158,10 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1299,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1404,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1474,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1509,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1614,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2906,13 +2796,17 @@
         <v>29.28</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>29.5</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2947,8 +2841,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2982,8 +2882,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -4131,17 +4037,13 @@
         <v>28.68</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4170,22 +4072,14 @@
         <v>28.61999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K105" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4107,14 @@
         <v>28.7</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>29</v>
-      </c>
-      <c r="K106" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C2" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D2" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F2" t="n">
-        <v>3181.2791</v>
+        <v>809</v>
       </c>
       <c r="G2" t="n">
-        <v>28.86</v>
+        <v>28.94000000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E3" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>5952.0712</v>
+        <v>3181.2791</v>
       </c>
       <c r="G3" t="n">
-        <v>28.98</v>
+        <v>28.95000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>29.1</v>
       </c>
       <c r="F4" t="n">
-        <v>13937</v>
+        <v>5952.0712</v>
       </c>
       <c r="G4" t="n">
-        <v>29.1</v>
+        <v>28.95666666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>13937</v>
       </c>
       <c r="G5" t="n">
-        <v>29.16</v>
+        <v>28.95500000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>29.1</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D6" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E6" t="n">
         <v>29.1</v>
       </c>
       <c r="F6" t="n">
-        <v>3009</v>
+        <v>13937</v>
       </c>
       <c r="G6" t="n">
-        <v>29.2</v>
+        <v>28.96500000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C7" t="n">
         <v>29.1</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E7" t="n">
         <v>29.1</v>
       </c>
       <c r="F7" t="n">
-        <v>3836.4326</v>
+        <v>3009</v>
       </c>
       <c r="G7" t="n">
-        <v>29.15999999999999</v>
+        <v>28.97500000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>29.2</v>
       </c>
       <c r="C8" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D8" t="n">
         <v>29.2</v>
       </c>
       <c r="E8" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F8" t="n">
-        <v>33457</v>
+        <v>3836.4326</v>
       </c>
       <c r="G8" t="n">
-        <v>29.15999999999999</v>
+        <v>28.98166666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C9" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D9" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F9" t="n">
-        <v>1152.2604</v>
+        <v>33457</v>
       </c>
       <c r="G9" t="n">
-        <v>29.13999999999999</v>
+        <v>28.98666666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>29.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1152.2603</v>
+        <v>1152.2604</v>
       </c>
       <c r="G10" t="n">
-        <v>29.11999999999999</v>
+        <v>28.99000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>29.1</v>
       </c>
       <c r="C11" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D11" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E11" t="n">
         <v>29.1</v>
       </c>
       <c r="F11" t="n">
-        <v>9543.000099999999</v>
+        <v>1152.2603</v>
       </c>
       <c r="G11" t="n">
-        <v>29.13999999999999</v>
+        <v>28.99666666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>29.1</v>
       </c>
       <c r="F12" t="n">
-        <v>48145.1424</v>
+        <v>9543.000099999999</v>
       </c>
       <c r="G12" t="n">
-        <v>29.15999999999999</v>
+        <v>29.00666666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>29.1</v>
       </c>
       <c r="C13" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D13" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E13" t="n">
         <v>29.1</v>
       </c>
       <c r="F13" t="n">
-        <v>26743.4754</v>
+        <v>48145.1424</v>
       </c>
       <c r="G13" t="n">
-        <v>29.13999999999999</v>
+        <v>29.01666666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C14" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D14" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E14" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F14" t="n">
-        <v>1292.1908</v>
+        <v>26743.4754</v>
       </c>
       <c r="G14" t="n">
-        <v>29.15999999999999</v>
+        <v>29.02000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C15" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D15" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E15" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>1292.1908</v>
       </c>
       <c r="G15" t="n">
-        <v>29.21999999999999</v>
+        <v>29.03166666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>29.4</v>
       </c>
       <c r="F16" t="n">
-        <v>1282.1908</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>29.26</v>
+        <v>29.04500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F17" t="n">
-        <v>700</v>
+        <v>1282.1908</v>
       </c>
       <c r="G17" t="n">
-        <v>29.32</v>
+        <v>29.05166666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>29.5</v>
       </c>
       <c r="F18" t="n">
-        <v>13571</v>
+        <v>700</v>
       </c>
       <c r="G18" t="n">
-        <v>29.4</v>
+        <v>29.06166666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>29.5</v>
       </c>
       <c r="C19" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D19" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="E19" t="n">
         <v>29.5</v>
       </c>
       <c r="F19" t="n">
-        <v>12543.8407</v>
+        <v>13571</v>
       </c>
       <c r="G19" t="n">
-        <v>29.52</v>
+        <v>29.07166666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="C20" t="n">
         <v>29.8</v>
@@ -1072,13 +1072,13 @@
         <v>29.8</v>
       </c>
       <c r="E20" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F20" t="n">
-        <v>700</v>
+        <v>12543.8407</v>
       </c>
       <c r="G20" t="n">
-        <v>29.6</v>
+        <v>29.08666666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C21" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="D21" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E21" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="F21" t="n">
-        <v>11870</v>
+        <v>700</v>
       </c>
       <c r="G21" t="n">
-        <v>29.54</v>
+        <v>29.10166666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="C22" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="D22" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="E22" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="F22" t="n">
-        <v>2100</v>
+        <v>11870</v>
       </c>
       <c r="G22" t="n">
-        <v>29.56</v>
+        <v>29.10500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>29.6</v>
       </c>
       <c r="C23" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D23" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E23" t="n">
         <v>29.6</v>
       </c>
       <c r="F23" t="n">
-        <v>9300</v>
+        <v>2100</v>
       </c>
       <c r="G23" t="n">
-        <v>29.62</v>
+        <v>29.11500000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C24" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="D24" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E24" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="F24" t="n">
-        <v>47214.6982</v>
+        <v>9300</v>
       </c>
       <c r="G24" t="n">
-        <v>29.4</v>
+        <v>29.13</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,28 +1238,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C25" t="n">
         <v>28.7</v>
       </c>
-      <c r="C25" t="n">
-        <v>28.6</v>
-      </c>
       <c r="D25" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E25" t="n">
         <v>28.7</v>
       </c>
-      <c r="E25" t="n">
-        <v>28.6</v>
-      </c>
       <c r="F25" t="n">
-        <v>11285</v>
+        <v>47214.6982</v>
       </c>
       <c r="G25" t="n">
-        <v>29.16</v>
+        <v>29.125</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="C26" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="D26" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="E26" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="F26" t="n">
-        <v>2250</v>
+        <v>11285</v>
       </c>
       <c r="G26" t="n">
-        <v>29.22</v>
+        <v>29.11833333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1311,19 +1311,19 @@
         <v>29.4</v>
       </c>
       <c r="C27" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D27" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="E27" t="n">
         <v>29.4</v>
       </c>
       <c r="F27" t="n">
-        <v>57080.7041</v>
+        <v>2250</v>
       </c>
       <c r="G27" t="n">
-        <v>29.26</v>
+        <v>29.125</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E28" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F28" t="n">
-        <v>4800</v>
+        <v>57080.7041</v>
       </c>
       <c r="G28" t="n">
-        <v>29.3</v>
+        <v>29.13833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C29" t="n">
         <v>30</v>
       </c>
-      <c r="C29" t="n">
-        <v>30.2</v>
-      </c>
       <c r="D29" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F29" t="n">
-        <v>101613.6424</v>
+        <v>4800</v>
       </c>
       <c r="G29" t="n">
-        <v>29.6</v>
+        <v>29.15666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="D30" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="E30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
-        <v>66040.4449</v>
+        <v>101613.6424</v>
       </c>
       <c r="G30" t="n">
-        <v>30</v>
+        <v>29.17</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C31" t="n">
         <v>30.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>30.5</v>
-      </c>
       <c r="D31" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="E31" t="n">
-        <v>30.5</v>
+        <v>30.1</v>
       </c>
       <c r="F31" t="n">
-        <v>22023.8406</v>
+        <v>66040.4449</v>
       </c>
       <c r="G31" t="n">
-        <v>30.22</v>
+        <v>29.195</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,28 +1483,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30.1</v>
+        <v>30.6</v>
       </c>
       <c r="C32" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="D32" t="n">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="E32" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1747.0089</v>
+        <v>22023.8406</v>
       </c>
       <c r="G32" t="n">
-        <v>30.29999999999999</v>
+        <v>29.22</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C33" t="n">
         <v>30.2</v>
@@ -1527,13 +1527,13 @@
         <v>30.2</v>
       </c>
       <c r="E33" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1173.3042</v>
+        <v>1747.0089</v>
       </c>
       <c r="G33" t="n">
-        <v>30.33999999999999</v>
+        <v>29.23833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C34" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D34" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E34" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="F34" t="n">
-        <v>8988.3388</v>
+        <v>1173.3042</v>
       </c>
       <c r="G34" t="n">
-        <v>30.38</v>
+        <v>29.25833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C35" t="n">
         <v>30.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>30.2</v>
       </c>
       <c r="D35" t="n">
         <v>30.4</v>
       </c>
       <c r="E35" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F35" t="n">
-        <v>23606.5182</v>
+        <v>8988.3388</v>
       </c>
       <c r="G35" t="n">
-        <v>30.29999999999999</v>
+        <v>29.27833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C36" t="n">
         <v>30.2</v>
       </c>
-      <c r="C36" t="n">
-        <v>30.3</v>
-      </c>
       <c r="D36" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E36" t="n">
         <v>30.2</v>
       </c>
       <c r="F36" t="n">
-        <v>4171.454</v>
+        <v>23606.5182</v>
       </c>
       <c r="G36" t="n">
-        <v>30.26</v>
+        <v>29.29833333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C37" t="n">
         <v>30.3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>30.2</v>
       </c>
       <c r="D37" t="n">
         <v>30.3</v>
@@ -1670,10 +1670,10 @@
         <v>30.2</v>
       </c>
       <c r="F37" t="n">
-        <v>25351.5748</v>
+        <v>4171.454</v>
       </c>
       <c r="G37" t="n">
-        <v>30.26</v>
+        <v>29.32</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="C38" t="n">
         <v>30.2</v>
       </c>
       <c r="D38" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="E38" t="n">
         <v>30.2</v>
       </c>
       <c r="F38" t="n">
-        <v>8358.386</v>
+        <v>25351.5748</v>
       </c>
       <c r="G38" t="n">
-        <v>30.26</v>
+        <v>29.34000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C39" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D39" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E39" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F39" t="n">
-        <v>3395.5346</v>
+        <v>8358.386</v>
       </c>
       <c r="G39" t="n">
-        <v>30.26</v>
+        <v>29.36000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C40" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="D40" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E40" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="F40" t="n">
-        <v>7486.7647</v>
+        <v>3395.5346</v>
       </c>
       <c r="G40" t="n">
-        <v>30.24</v>
+        <v>29.38000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C41" t="n">
         <v>30.1</v>
       </c>
-      <c r="C41" t="n">
-        <v>30</v>
-      </c>
       <c r="D41" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E41" t="n">
         <v>30.1</v>
       </c>
-      <c r="E41" t="n">
-        <v>30</v>
-      </c>
       <c r="F41" t="n">
-        <v>9194.611000000001</v>
+        <v>7486.7647</v>
       </c>
       <c r="G41" t="n">
-        <v>30.18</v>
+        <v>29.395</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C42" t="n">
         <v>30</v>
       </c>
-      <c r="C42" t="n">
-        <v>30.4</v>
-      </c>
       <c r="D42" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
       </c>
       <c r="F42" t="n">
-        <v>6868.0528</v>
+        <v>9194.611000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>30.22</v>
+        <v>29.40833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="D43" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="E43" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n">
-        <v>1019.5988</v>
+        <v>6868.0528</v>
       </c>
       <c r="G43" t="n">
-        <v>30.2</v>
+        <v>29.43166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D44" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F44" t="n">
-        <v>17541.6485</v>
+        <v>1019.5988</v>
       </c>
       <c r="G44" t="n">
-        <v>30.12</v>
+        <v>29.45166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C45" t="n">
         <v>30</v>
       </c>
-      <c r="C45" t="n">
-        <v>29.3</v>
-      </c>
       <c r="D45" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E45" t="n">
         <v>30</v>
       </c>
-      <c r="E45" t="n">
-        <v>29.3</v>
-      </c>
       <c r="F45" t="n">
-        <v>37295.2239</v>
+        <v>17541.6485</v>
       </c>
       <c r="G45" t="n">
-        <v>29.96</v>
+        <v>29.47</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C46" t="n">
         <v>29.3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>30</v>
@@ -1985,10 +1985,10 @@
         <v>29.3</v>
       </c>
       <c r="F46" t="n">
-        <v>3510</v>
+        <v>37295.2239</v>
       </c>
       <c r="G46" t="n">
-        <v>29.96</v>
+        <v>29.47666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="C47" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="F47" t="n">
-        <v>1964</v>
+        <v>3510</v>
       </c>
       <c r="G47" t="n">
-        <v>29.78</v>
+        <v>29.49666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C48" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="D48" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="E48" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F48" t="n">
-        <v>100.3344481605351</v>
+        <v>1964</v>
       </c>
       <c r="G48" t="n">
-        <v>29.74</v>
+        <v>29.50666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="C49" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="D49" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="E49" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="F49" t="n">
-        <v>190.1257</v>
+        <v>100.3344481605351</v>
       </c>
       <c r="G49" t="n">
-        <v>29.64</v>
+        <v>29.52333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>29.5</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>190.1257</v>
       </c>
       <c r="G50" t="n">
-        <v>29.68</v>
+        <v>29.53166666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C51" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D51" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E51" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F51" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>29.56</v>
+        <v>29.54</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>29.4</v>
       </c>
       <c r="F52" t="n">
-        <v>7000</v>
+        <v>1400</v>
       </c>
       <c r="G52" t="n">
-        <v>29.54</v>
+        <v>29.545</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>29.4</v>
       </c>
       <c r="F53" t="n">
-        <v>2454</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="n">
-        <v>29.44</v>
+        <v>29.54333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="C54" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="D54" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="E54" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>2454</v>
       </c>
       <c r="G54" t="n">
-        <v>29.52</v>
+        <v>29.54833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C55" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="D55" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="E55" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="F55" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>29.48000000000001</v>
+        <v>29.55666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>29.3</v>
       </c>
       <c r="F56" t="n">
-        <v>700</v>
+        <v>37</v>
       </c>
       <c r="G56" t="n">
-        <v>29.46000000000001</v>
+        <v>29.55666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>29.3</v>
       </c>
       <c r="F57" t="n">
-        <v>10064.8194</v>
+        <v>700</v>
       </c>
       <c r="G57" t="n">
-        <v>29.44000000000001</v>
+        <v>29.56333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>29.3</v>
       </c>
       <c r="F58" t="n">
-        <v>10728</v>
+        <v>10064.8194</v>
       </c>
       <c r="G58" t="n">
-        <v>29.42000000000001</v>
+        <v>29.57166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>29.3</v>
       </c>
       <c r="F59" t="n">
-        <v>17.1498</v>
+        <v>10728</v>
       </c>
       <c r="G59" t="n">
-        <v>29.30000000000001</v>
+        <v>29.58333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C60" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D60" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E60" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>17.1498</v>
       </c>
       <c r="G60" t="n">
-        <v>29.28000000000001</v>
+        <v>29.59500000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F61" t="n">
-        <v>7687.5429</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>29.24</v>
+        <v>29.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,31 +2533,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D62" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E62" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F62" t="n">
-        <v>18043</v>
+        <v>7687.5429</v>
       </c>
       <c r="G62" t="n">
-        <v>29.18</v>
+        <v>29.60333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>29.2</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2580,20 +2584,28 @@
         <v>29</v>
       </c>
       <c r="F63" t="n">
-        <v>1469.4427</v>
+        <v>18043</v>
       </c>
       <c r="G63" t="n">
-        <v>29.12</v>
+        <v>29.59833333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,32 +2615,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C64" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E64" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="F64" t="n">
-        <v>3564.4517</v>
+        <v>1469.4427</v>
       </c>
       <c r="G64" t="n">
-        <v>29.14</v>
+        <v>29.595</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>29</v>
+      </c>
+      <c r="K64" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C65" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D65" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="E65" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F65" t="n">
-        <v>1500</v>
+        <v>3564.4517</v>
       </c>
       <c r="G65" t="n">
-        <v>29.12</v>
+        <v>29.59833333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C66" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D66" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E66" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1242.9423</v>
+        <v>1500</v>
       </c>
       <c r="G66" t="n">
-        <v>29.06</v>
+        <v>29.59666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2728,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C67" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="D67" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E67" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>1242.9423</v>
       </c>
       <c r="G67" t="n">
-        <v>29.14</v>
+        <v>29.59166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,31 +2763,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C68" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D68" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E68" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>29.24</v>
+        <v>29.59666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28.8</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
@@ -2778,36 +2802,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C69" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D69" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E69" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F69" t="n">
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>29.28</v>
+        <v>29.60166666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+        <v>28.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2817,22 +2843,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C70" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D70" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E70" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F70" t="n">
-        <v>1771.5668</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>29.36</v>
+        <v>29.61</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,7 +2868,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2858,22 +2884,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="C71" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D71" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="E71" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>1771.5668</v>
       </c>
       <c r="G71" t="n">
-        <v>29.56</v>
+        <v>29.61666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2882,14 +2908,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2899,22 +2919,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="C72" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="D72" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="E72" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>29.54</v>
+        <v>29.62666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2954,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="C73" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D73" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E73" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F73" t="n">
-        <v>217.5805</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="n">
-        <v>29.46</v>
+        <v>29.62833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +2989,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C74" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="D74" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="E74" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="F74" t="n">
-        <v>66666.6666</v>
+        <v>217.5805</v>
       </c>
       <c r="G74" t="n">
-        <v>29.52</v>
+        <v>29.62833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,22 +3024,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C75" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="D75" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="E75" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1152.1842</v>
+        <v>66666.6666</v>
       </c>
       <c r="G75" t="n">
-        <v>29.54</v>
+        <v>29.64</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,22 +3059,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C76" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="D76" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="E76" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F76" t="n">
-        <v>1150</v>
+        <v>1152.1842</v>
       </c>
       <c r="G76" t="n">
-        <v>29.46</v>
+        <v>29.64333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3094,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C77" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D77" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E77" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F77" t="n">
-        <v>5028.9513</v>
+        <v>1150</v>
       </c>
       <c r="G77" t="n">
-        <v>29.42</v>
+        <v>29.64333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3129,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C78" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D78" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E78" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F78" t="n">
-        <v>12844</v>
+        <v>5028.9513</v>
       </c>
       <c r="G78" t="n">
-        <v>29.44</v>
+        <v>29.63666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3147,19 +3167,19 @@
         <v>29.2</v>
       </c>
       <c r="C79" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="D79" t="n">
         <v>29.2</v>
       </c>
       <c r="E79" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="F79" t="n">
-        <v>5729</v>
+        <v>12844</v>
       </c>
       <c r="G79" t="n">
-        <v>29.22</v>
+        <v>29.63166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3179,22 +3199,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="C80" t="n">
         <v>28.8</v>
       </c>
       <c r="D80" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E80" t="n">
         <v>28.8</v>
       </c>
       <c r="F80" t="n">
-        <v>15750</v>
+        <v>5729</v>
       </c>
       <c r="G80" t="n">
-        <v>29.06</v>
+        <v>29.615</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3217,19 +3237,19 @@
         <v>28.9</v>
       </c>
       <c r="C81" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D81" t="n">
         <v>28.9</v>
       </c>
       <c r="E81" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F81" t="n">
-        <v>14642.1058</v>
+        <v>15750</v>
       </c>
       <c r="G81" t="n">
-        <v>28.96</v>
+        <v>29.59833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3261,19 +3281,23 @@
         <v>28.9</v>
       </c>
       <c r="F82" t="n">
-        <v>26876.1937</v>
+        <v>14642.1058</v>
       </c>
       <c r="G82" t="n">
-        <v>28.92000000000001</v>
+        <v>29.595</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.8</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3296,10 +3320,10 @@
         <v>28.9</v>
       </c>
       <c r="F83" t="n">
-        <v>20157.1453</v>
+        <v>26876.1937</v>
       </c>
       <c r="G83" t="n">
-        <v>28.86000000000001</v>
+        <v>29.58333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3308,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3322,19 +3352,19 @@
         <v>28.9</v>
       </c>
       <c r="C84" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="D84" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="E84" t="n">
         <v>28.9</v>
       </c>
       <c r="F84" t="n">
-        <v>11489.5743</v>
+        <v>20157.1453</v>
       </c>
       <c r="G84" t="n">
-        <v>28.94</v>
+        <v>29.56833333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3343,8 +3373,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3390,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="C85" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D85" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E85" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1500</v>
+        <v>11489.5743</v>
       </c>
       <c r="G85" t="n">
-        <v>29.06</v>
+        <v>29.57666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3389,22 +3425,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="C86" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D86" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="E86" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G86" t="n">
-        <v>29.24</v>
+        <v>29.59000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3424,22 +3460,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C87" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D87" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E87" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="F87" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>29.44</v>
+        <v>29.59666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3459,22 +3495,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C88" t="n">
         <v>29.9</v>
       </c>
-      <c r="C88" t="n">
-        <v>30</v>
-      </c>
       <c r="D88" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E88" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F88" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G88" t="n">
-        <v>29.66</v>
+        <v>29.59833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3497,19 +3533,19 @@
         <v>29.9</v>
       </c>
       <c r="C89" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D89" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E89" t="n">
         <v>29.9</v>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>29.86</v>
+        <v>29.59833333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3529,22 +3565,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C90" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="D90" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E90" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="F90" t="n">
-        <v>3124.5031</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>29.8</v>
+        <v>29.59833333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3564,22 +3600,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C91" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="D91" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E91" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F91" t="n">
-        <v>2710.9776</v>
+        <v>3124.5031</v>
       </c>
       <c r="G91" t="n">
-        <v>29.72</v>
+        <v>29.57333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3599,22 +3635,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C92" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D92" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E92" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F92" t="n">
-        <v>23549.0852</v>
+        <v>2710.9776</v>
       </c>
       <c r="G92" t="n">
-        <v>29.57999999999999</v>
+        <v>29.55500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3646,10 +3682,10 @@
         <v>29.2</v>
       </c>
       <c r="F93" t="n">
-        <v>1700</v>
+        <v>23549.0852</v>
       </c>
       <c r="G93" t="n">
-        <v>29.41999999999999</v>
+        <v>29.53833333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3681,10 +3717,10 @@
         <v>29.2</v>
       </c>
       <c r="F94" t="n">
-        <v>787.7641</v>
+        <v>1700</v>
       </c>
       <c r="G94" t="n">
-        <v>29.21999999999999</v>
+        <v>29.52166666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3704,22 +3740,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C95" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D95" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E95" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F95" t="n">
-        <v>1400.384365870307</v>
+        <v>787.7641</v>
       </c>
       <c r="G95" t="n">
-        <v>29.21999999999999</v>
+        <v>29.50166666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3775,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="C96" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D96" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="E96" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F96" t="n">
-        <v>2768.1659</v>
+        <v>1400.384365870307</v>
       </c>
       <c r="G96" t="n">
-        <v>29.11999999999999</v>
+        <v>29.48333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3810,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C97" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D97" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E97" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F97" t="n">
-        <v>90</v>
+        <v>2768.1659</v>
       </c>
       <c r="G97" t="n">
-        <v>29.01999999999999</v>
+        <v>29.46000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3812,19 +3848,19 @@
         <v>28.7</v>
       </c>
       <c r="C98" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D98" t="n">
         <v>28.7</v>
       </c>
       <c r="E98" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F98" t="n">
-        <v>121672.0836</v>
+        <v>90</v>
       </c>
       <c r="G98" t="n">
-        <v>28.86</v>
+        <v>29.43500000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3880,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C99" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="D99" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E99" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="F99" t="n">
-        <v>2136.2718</v>
+        <v>121672.0836</v>
       </c>
       <c r="G99" t="n">
-        <v>28.78</v>
+        <v>29.40500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C100" t="n">
         <v>28.8</v>
       </c>
       <c r="D100" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E100" t="n">
         <v>28.8</v>
       </c>
       <c r="F100" t="n">
-        <v>9144.829400000001</v>
+        <v>2136.2718</v>
       </c>
       <c r="G100" t="n">
-        <v>28.72000000000001</v>
+        <v>29.37833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3914,22 +3950,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="C101" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="D101" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E101" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="F101" t="n">
-        <v>3346</v>
+        <v>9144.829400000001</v>
       </c>
       <c r="G101" t="n">
-        <v>28.66</v>
+        <v>29.35666666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3961,10 +3997,10 @@
         <v>28.6</v>
       </c>
       <c r="F102" t="n">
-        <v>882.6842</v>
+        <v>3346</v>
       </c>
       <c r="G102" t="n">
-        <v>28.64</v>
+        <v>29.33333333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +4020,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C103" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D103" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E103" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F103" t="n">
-        <v>851.7569999999999</v>
+        <v>882.6842</v>
       </c>
       <c r="G103" t="n">
-        <v>28.7</v>
+        <v>29.30333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4031,10 +4067,10 @@
         <v>28.7</v>
       </c>
       <c r="F104" t="n">
-        <v>3661.175</v>
+        <v>851.7569999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>28.68</v>
+        <v>29.28000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,22 +4090,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C105" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D105" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E105" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F105" t="n">
-        <v>1707.2783</v>
+        <v>3661.175</v>
       </c>
       <c r="G105" t="n">
-        <v>28.61999999999999</v>
+        <v>29.25833333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4125,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="C106" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D106" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E106" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="F106" t="n">
-        <v>4188.862</v>
+        <v>1707.2783</v>
       </c>
       <c r="G106" t="n">
-        <v>28.7</v>
+        <v>29.24500000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4119,6 +4155,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>29</v>
+      </c>
+      <c r="C107" t="n">
+        <v>29</v>
+      </c>
+      <c r="D107" t="n">
+        <v>29</v>
+      </c>
+      <c r="E107" t="n">
+        <v>29</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4188.862</v>
+      </c>
+      <c r="G107" t="n">
+        <v>29.22833333333334</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>809</v>
       </c>
       <c r="G2" t="n">
+        <v>28.99333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>28.94000000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>3181.2791</v>
       </c>
       <c r="G3" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="H3" t="n">
         <v>28.95000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>5952.0712</v>
       </c>
       <c r="G4" t="n">
+        <v>29.04000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>28.95666666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>13937</v>
       </c>
       <c r="G5" t="n">
+        <v>29.05333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>28.95500000000002</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>13937</v>
       </c>
       <c r="G6" t="n">
+        <v>29.06666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>28.96500000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>3009</v>
       </c>
       <c r="G7" t="n">
+        <v>29.06666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>28.97500000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,27 @@
         <v>3836.4326</v>
       </c>
       <c r="G8" t="n">
+        <v>29.04000000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>28.98166666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.1</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +743,27 @@
         <v>33457</v>
       </c>
       <c r="G9" t="n">
+        <v>29.04666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>28.98666666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.1</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +787,25 @@
         <v>1152.2604</v>
       </c>
       <c r="G10" t="n">
+        <v>29.02666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>28.99000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +829,25 @@
         <v>1152.2603</v>
       </c>
       <c r="G11" t="n">
+        <v>29.01333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>28.99666666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +871,25 @@
         <v>9543.000099999999</v>
       </c>
       <c r="G12" t="n">
+        <v>29.03333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>29.00666666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +913,25 @@
         <v>48145.1424</v>
       </c>
       <c r="G13" t="n">
+        <v>29.06000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>29.01666666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +955,27 @@
         <v>26743.4754</v>
       </c>
       <c r="G14" t="n">
+        <v>29.09333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>29.02000000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29.2</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +999,27 @@
         <v>1292.1908</v>
       </c>
       <c r="G15" t="n">
+        <v>29.13333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>29.03166666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29.1</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1043,25 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>29.04500000000002</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1085,25 @@
         <v>1282.1908</v>
       </c>
       <c r="G17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>29.05166666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1127,25 @@
         <v>700</v>
       </c>
       <c r="G18" t="n">
+        <v>29.21333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>29.06166666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1169,25 @@
         <v>13571</v>
       </c>
       <c r="G19" t="n">
+        <v>29.23333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>29.07166666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1211,25 @@
         <v>12543.8407</v>
       </c>
       <c r="G20" t="n">
+        <v>29.27333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>29.08666666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1253,25 @@
         <v>700</v>
       </c>
       <c r="G21" t="n">
+        <v>29.31333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>29.10166666666668</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1295,25 @@
         <v>11870</v>
       </c>
       <c r="G22" t="n">
+        <v>29.31333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>29.10500000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1337,25 @@
         <v>2100</v>
       </c>
       <c r="G23" t="n">
+        <v>29.34666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>29.11500000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1379,25 @@
         <v>9300</v>
       </c>
       <c r="G24" t="n">
+        <v>29.38666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>29.13</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1421,25 @@
         <v>47214.6982</v>
       </c>
       <c r="G25" t="n">
+        <v>29.36000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>29.125</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1463,25 @@
         <v>11285</v>
       </c>
       <c r="G26" t="n">
+        <v>29.32666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>29.11833333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1505,25 @@
         <v>2250</v>
       </c>
       <c r="G27" t="n">
+        <v>29.34000000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>29.125</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1547,25 @@
         <v>57080.7041</v>
       </c>
       <c r="G28" t="n">
+        <v>29.38000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>29.13833333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1589,25 @@
         <v>4800</v>
       </c>
       <c r="G29" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="H29" t="n">
         <v>29.15666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1631,25 @@
         <v>101613.6424</v>
       </c>
       <c r="G30" t="n">
+        <v>29.50666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>29.17</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1673,25 @@
         <v>66040.4449</v>
       </c>
       <c r="G31" t="n">
+        <v>29.58666666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>29.195</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1715,25 @@
         <v>22023.8406</v>
       </c>
       <c r="G32" t="n">
+        <v>29.66000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>29.22</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1757,25 @@
         <v>1747.0089</v>
       </c>
       <c r="G33" t="n">
+        <v>29.70666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>29.23833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1799,25 @@
         <v>1173.3042</v>
       </c>
       <c r="G34" t="n">
+        <v>29.75333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>29.25833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1841,25 @@
         <v>8988.3388</v>
       </c>
       <c r="G35" t="n">
+        <v>29.79333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>29.27833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1883,25 @@
         <v>23606.5182</v>
       </c>
       <c r="G36" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H36" t="n">
         <v>29.29833333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1925,25 @@
         <v>4171.454</v>
       </c>
       <c r="G37" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H37" t="n">
         <v>29.32</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1967,25 @@
         <v>25351.5748</v>
       </c>
       <c r="G38" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H38" t="n">
         <v>29.34000000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2009,25 @@
         <v>8358.386</v>
       </c>
       <c r="G39" t="n">
+        <v>29.96666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>29.36000000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,20 +2051,25 @@
         <v>3395.5346</v>
       </c>
       <c r="G40" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="H40" t="n">
         <v>29.38000000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,18 +2091,21 @@
         <v>7486.7647</v>
       </c>
       <c r="G41" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="H41" t="n">
         <v>29.395</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2129,21 @@
         <v>9194.611000000001</v>
       </c>
       <c r="G42" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="H42" t="n">
         <v>29.40833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2167,21 @@
         <v>6868.0528</v>
       </c>
       <c r="G43" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="H43" t="n">
         <v>29.43166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2205,21 @@
         <v>1019.5988</v>
       </c>
       <c r="G44" t="n">
+        <v>30.26666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>29.45166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2243,21 @@
         <v>17541.6485</v>
       </c>
       <c r="G45" t="n">
+        <v>30.25333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>29.47</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2281,21 @@
         <v>37295.2239</v>
       </c>
       <c r="G46" t="n">
+        <v>30.16666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>29.47666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2319,21 @@
         <v>3510</v>
       </c>
       <c r="G47" t="n">
+        <v>30.13333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>29.49666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2357,21 @@
         <v>1964</v>
       </c>
       <c r="G48" t="n">
+        <v>30.08666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>29.50666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2395,21 @@
         <v>100.3344481605351</v>
       </c>
       <c r="G49" t="n">
+        <v>30.06666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>29.52333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2433,21 @@
         <v>190.1257</v>
       </c>
       <c r="G50" t="n">
+        <v>30.00666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>29.53166666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2471,21 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="H51" t="n">
         <v>29.54</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2509,21 @@
         <v>1400</v>
       </c>
       <c r="G52" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H52" t="n">
         <v>29.545</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2547,21 @@
         <v>7000</v>
       </c>
       <c r="G53" t="n">
+        <v>29.84666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>29.54333333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2585,21 @@
         <v>2454</v>
       </c>
       <c r="G54" t="n">
+        <v>29.79333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>29.54833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2623,21 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="H55" t="n">
         <v>29.55666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2661,21 @@
         <v>37</v>
       </c>
       <c r="G56" t="n">
+        <v>29.70666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>29.55666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2699,21 @@
         <v>700</v>
       </c>
       <c r="G57" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="H57" t="n">
         <v>29.56333333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2737,21 @@
         <v>10064.8194</v>
       </c>
       <c r="G58" t="n">
+        <v>29.58666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>29.57166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2775,21 @@
         <v>10728</v>
       </c>
       <c r="G59" t="n">
+        <v>29.53333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>29.58333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2813,21 @@
         <v>17.1498</v>
       </c>
       <c r="G60" t="n">
+        <v>29.48666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>29.59500000000001</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2851,21 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="H61" t="n">
         <v>29.6</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2889,21 @@
         <v>7687.5429</v>
       </c>
       <c r="G62" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="H62" t="n">
         <v>29.60333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,26 +2927,21 @@
         <v>18043</v>
       </c>
       <c r="G63" t="n">
+        <v>29.38666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>29.59833333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,26 +2965,21 @@
         <v>1469.4427</v>
       </c>
       <c r="G64" t="n">
+        <v>29.32666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>29.595</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>29</v>
-      </c>
-      <c r="K64" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3003,21 @@
         <v>3564.4517</v>
       </c>
       <c r="G65" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="H65" t="n">
         <v>29.59833333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3041,21 @@
         <v>1500</v>
       </c>
       <c r="G66" t="n">
+        <v>29.29333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>29.59666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3079,21 @@
         <v>1242.9423</v>
       </c>
       <c r="G67" t="n">
+        <v>29.25333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>29.59166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,22 +3117,21 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
+        <v>29.25333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>29.59666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2817,24 +3155,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
+        <v>29.26000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>29.60166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,24 +3193,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>29.24000000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>29.61</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,18 +3231,21 @@
         <v>1771.5668</v>
       </c>
       <c r="G71" t="n">
+        <v>29.25333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>29.61666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3269,21 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
+        <v>29.28666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>29.62666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,18 +3307,21 @@
         <v>1500</v>
       </c>
       <c r="G73" t="n">
+        <v>29.28666666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>29.62833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,18 +3345,21 @@
         <v>217.5805</v>
       </c>
       <c r="G74" t="n">
+        <v>29.27333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>29.62833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,18 +3383,21 @@
         <v>66666.6666</v>
       </c>
       <c r="G75" t="n">
+        <v>29.31333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>29.64</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,18 +3421,21 @@
         <v>1152.1842</v>
       </c>
       <c r="G76" t="n">
+        <v>29.34000000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>29.64333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,18 +3459,21 @@
         <v>1150</v>
       </c>
       <c r="G77" t="n">
+        <v>29.36000000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>29.64333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,18 +3497,21 @@
         <v>5028.9513</v>
       </c>
       <c r="G78" t="n">
+        <v>29.36666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>29.63666666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,18 +3535,21 @@
         <v>12844</v>
       </c>
       <c r="G79" t="n">
+        <v>29.38000000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>29.63166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,18 +3573,21 @@
         <v>5729</v>
       </c>
       <c r="G80" t="n">
+        <v>29.34000000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>29.615</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,18 +3611,21 @@
         <v>15750</v>
       </c>
       <c r="G81" t="n">
+        <v>29.32000000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>29.59833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,22 +3649,21 @@
         <v>14642.1058</v>
       </c>
       <c r="G82" t="n">
+        <v>29.32666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>29.595</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K82" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,24 +3687,21 @@
         <v>26876.1937</v>
       </c>
       <c r="G83" t="n">
+        <v>29.29333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>29.58333333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,24 +3725,21 @@
         <v>20157.1453</v>
       </c>
       <c r="G84" t="n">
+        <v>29.25333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>29.56833333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,18 +3763,21 @@
         <v>11489.5743</v>
       </c>
       <c r="G85" t="n">
+        <v>29.22666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>29.57666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,18 +3801,21 @@
         <v>1500</v>
       </c>
       <c r="G86" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="H86" t="n">
         <v>29.59000000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,18 +3839,21 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="H87" t="n">
         <v>29.59666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,18 +3877,21 @@
         <v>4000</v>
       </c>
       <c r="G88" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="H88" t="n">
         <v>29.59833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3545,18 +3915,21 @@
         <v>5000</v>
       </c>
       <c r="G89" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="H89" t="n">
         <v>29.59833333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,18 +3953,21 @@
         <v>3000</v>
       </c>
       <c r="G90" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="H90" t="n">
         <v>29.59833333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +3991,21 @@
         <v>3124.5031</v>
       </c>
       <c r="G91" t="n">
+        <v>29.30666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>29.57333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,18 +4029,21 @@
         <v>2710.9776</v>
       </c>
       <c r="G92" t="n">
+        <v>29.30666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>29.55500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,18 +4067,21 @@
         <v>23549.0852</v>
       </c>
       <c r="G93" t="n">
+        <v>29.31333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>29.53833333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,18 +4105,21 @@
         <v>1700</v>
       </c>
       <c r="G94" t="n">
+        <v>29.31333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>29.52166666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,18 +4143,21 @@
         <v>787.7641</v>
       </c>
       <c r="G95" t="n">
+        <v>29.33999999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>29.50166666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,18 +4181,21 @@
         <v>1400.384365870307</v>
       </c>
       <c r="G96" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="H96" t="n">
         <v>29.48333333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +4219,21 @@
         <v>2768.1659</v>
       </c>
       <c r="G97" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="H97" t="n">
         <v>29.46000000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,18 +4257,21 @@
         <v>90</v>
       </c>
       <c r="G98" t="n">
+        <v>29.34666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>29.43500000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,18 +4295,21 @@
         <v>121672.0836</v>
       </c>
       <c r="G99" t="n">
+        <v>29.31333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>29.40500000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,18 +4333,21 @@
         <v>2136.2718</v>
       </c>
       <c r="G100" t="n">
+        <v>29.28666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>29.37833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +4371,21 @@
         <v>9144.829400000001</v>
       </c>
       <c r="G101" t="n">
+        <v>29.24666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>29.35666666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4409,21 @@
         <v>3346</v>
       </c>
       <c r="G102" t="n">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>29.33333333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4447,21 @@
         <v>882.6842</v>
       </c>
       <c r="G103" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="H103" t="n">
         <v>29.30333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,18 +4485,21 @@
         <v>851.7569999999999</v>
       </c>
       <c r="G104" t="n">
+        <v>28.99333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>29.28000000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,18 +4523,25 @@
         <v>3661.175</v>
       </c>
       <c r="G105" t="n">
+        <v>28.89333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>29.25833333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L105" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +4565,29 @@
         <v>1707.2783</v>
       </c>
       <c r="G106" t="n">
+        <v>28.85333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>29.24500000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L106" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +4611,473 @@
         <v>4188.862</v>
       </c>
       <c r="G107" t="n">
+        <v>28.82666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>29.22833333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L107" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4441.1451</v>
+      </c>
+      <c r="G108" t="n">
+        <v>28.79333333333334</v>
+      </c>
+      <c r="H108" t="n">
+        <v>29.21500000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13916</v>
+      </c>
+      <c r="G109" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="H109" t="n">
+        <v>29.19500000000001</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9354</v>
+      </c>
+      <c r="G110" t="n">
+        <v>28.72666666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>29.18166666666668</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14971.5052</v>
+      </c>
+      <c r="G111" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="H111" t="n">
+        <v>29.16333333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11308.2624</v>
+      </c>
+      <c r="G112" t="n">
+        <v>28.63333333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>29.14333333333334</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3380.4911</v>
+      </c>
+      <c r="G113" t="n">
+        <v>28.60666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>29.12500000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3042.4416</v>
+      </c>
+      <c r="G114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H114" t="n">
+        <v>29.10666666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G115" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="H115" t="n">
+        <v>29.07333333333334</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6999.6187</v>
+      </c>
+      <c r="G116" t="n">
+        <v>28.47333333333334</v>
+      </c>
+      <c r="H116" t="n">
+        <v>29.04833333333334</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>700</v>
+      </c>
+      <c r="G117" t="n">
+        <v>28.44666666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>29.03000000000001</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L117" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E2" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>809</v>
+        <v>10965.9865</v>
       </c>
       <c r="G2" t="n">
-        <v>28.99333333333334</v>
+        <v>360822.3135</v>
       </c>
       <c r="H2" t="n">
-        <v>28.94000000000002</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C3" t="n">
         <v>29</v>
       </c>
-      <c r="C3" t="n">
-        <v>29.3</v>
-      </c>
       <c r="D3" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>3181.2791</v>
+        <v>42775.0712</v>
       </c>
       <c r="G3" t="n">
-        <v>29.02</v>
+        <v>318047.2423</v>
       </c>
       <c r="H3" t="n">
-        <v>28.95000000000001</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,706 +515,597 @@
         <v>29.1</v>
       </c>
       <c r="F4" t="n">
-        <v>5952.0712</v>
+        <v>2719.9006</v>
       </c>
       <c r="G4" t="n">
-        <v>29.04000000000001</v>
+        <v>320767.1429</v>
       </c>
       <c r="H4" t="n">
-        <v>28.95666666666668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2427.9999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>318339.143</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4407</v>
+      </c>
+      <c r="G6" t="n">
+        <v>318339.143</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>318339.143</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2586.0902</v>
+      </c>
+      <c r="G8" t="n">
+        <v>318339.143</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>318349.143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>856.1643835616438</v>
+      </c>
+      <c r="G10" t="n">
+        <v>318349.143</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1168.2431</v>
+      </c>
+      <c r="G11" t="n">
+        <v>318349.143</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6059.0603</v>
+      </c>
+      <c r="G12" t="n">
+        <v>312290.0827</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30726.1244</v>
+      </c>
+      <c r="G13" t="n">
+        <v>281563.9582999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9120.034600000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>281563.9582999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9120.034600000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>281563.9582999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G16" t="n">
+        <v>275063.9582999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1033.8064</v>
+      </c>
+      <c r="G17" t="n">
+        <v>276097.7646999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4307</v>
+      </c>
+      <c r="G18" t="n">
+        <v>276097.7646999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>29</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n">
+        <v>276117.7646999999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13937</v>
-      </c>
-      <c r="G5" t="n">
-        <v>29.05333333333334</v>
-      </c>
-      <c r="H5" t="n">
-        <v>28.95500000000002</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5321.8846</v>
+      </c>
+      <c r="G20" t="n">
+        <v>276117.7646999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13937</v>
-      </c>
-      <c r="G6" t="n">
-        <v>29.06666666666667</v>
-      </c>
-      <c r="H6" t="n">
-        <v>28.96500000000002</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3009</v>
-      </c>
-      <c r="G7" t="n">
-        <v>29.06666666666667</v>
-      </c>
-      <c r="H7" t="n">
-        <v>28.97500000000002</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3836.4326</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29.04000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>28.98166666666668</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33457</v>
-      </c>
-      <c r="G9" t="n">
-        <v>29.04666666666667</v>
-      </c>
-      <c r="H9" t="n">
-        <v>28.98666666666668</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1152.2604</v>
-      </c>
-      <c r="G10" t="n">
-        <v>29.02666666666667</v>
-      </c>
-      <c r="H10" t="n">
-        <v>28.99000000000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1152.2603</v>
-      </c>
-      <c r="G11" t="n">
-        <v>29.01333333333334</v>
-      </c>
-      <c r="H11" t="n">
-        <v>28.99666666666668</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9543.000099999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>29.03333333333334</v>
-      </c>
-      <c r="H12" t="n">
-        <v>29.00666666666668</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48145.1424</v>
-      </c>
-      <c r="G13" t="n">
-        <v>29.06000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>29.01666666666668</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>26743.4754</v>
-      </c>
-      <c r="G14" t="n">
-        <v>29.09333333333334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>29.02000000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1292.1908</v>
-      </c>
-      <c r="G15" t="n">
-        <v>29.13333333333334</v>
-      </c>
-      <c r="H15" t="n">
-        <v>29.03166666666668</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>29.16666666666667</v>
-      </c>
-      <c r="H16" t="n">
-        <v>29.04500000000002</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1282.1908</v>
-      </c>
-      <c r="G17" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>29.05166666666668</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>700</v>
-      </c>
-      <c r="G18" t="n">
-        <v>29.21333333333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>29.06166666666668</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13571</v>
-      </c>
-      <c r="G19" t="n">
-        <v>29.23333333333334</v>
-      </c>
-      <c r="H19" t="n">
-        <v>29.07166666666668</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12543.8407</v>
-      </c>
-      <c r="G20" t="n">
-        <v>29.27333333333334</v>
-      </c>
-      <c r="H20" t="n">
-        <v>29.08666666666668</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,40 +1114,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="C21" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="D21" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E21" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="F21" t="n">
-        <v>700</v>
+        <v>40000</v>
       </c>
       <c r="G21" t="n">
-        <v>29.31333333333334</v>
+        <v>316117.7646999999</v>
       </c>
       <c r="H21" t="n">
-        <v>29.10166666666668</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1280,40 +1149,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C22" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="D22" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E22" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F22" t="n">
-        <v>11870</v>
+        <v>45163.6195</v>
       </c>
       <c r="G22" t="n">
-        <v>29.31333333333334</v>
+        <v>361281.3842</v>
       </c>
       <c r="H22" t="n">
-        <v>29.10500000000001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,40 +1184,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="C23" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="D23" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="E23" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="F23" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="G23" t="n">
-        <v>29.34666666666667</v>
+        <v>360581.3842</v>
       </c>
       <c r="H23" t="n">
-        <v>29.11500000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,40 +1219,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="C24" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D24" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="E24" t="n">
-        <v>29.6</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>9300</v>
+        <v>51858.8916</v>
       </c>
       <c r="G24" t="n">
-        <v>29.38666666666667</v>
+        <v>412440.2757999999</v>
       </c>
       <c r="H24" t="n">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,40 +1254,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C25" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="D25" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E25" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="F25" t="n">
-        <v>47214.6982</v>
+        <v>1444.0089</v>
       </c>
       <c r="G25" t="n">
-        <v>29.36000000000001</v>
+        <v>410996.2668999999</v>
       </c>
       <c r="H25" t="n">
-        <v>29.125</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,40 +1289,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C26" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D26" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E26" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F26" t="n">
-        <v>11285</v>
+        <v>6050</v>
       </c>
       <c r="G26" t="n">
-        <v>29.32666666666667</v>
+        <v>404946.2668999999</v>
       </c>
       <c r="H26" t="n">
-        <v>29.11833333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,40 +1324,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="C27" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="D27" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E27" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="F27" t="n">
-        <v>2250</v>
+        <v>21922.0712</v>
       </c>
       <c r="G27" t="n">
-        <v>29.34000000000001</v>
+        <v>383024.1956999999</v>
       </c>
       <c r="H27" t="n">
-        <v>29.125</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,40 +1359,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="C28" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="D28" t="n">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="E28" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="F28" t="n">
-        <v>57080.7041</v>
+        <v>36918.9738</v>
       </c>
       <c r="G28" t="n">
-        <v>29.38000000000001</v>
+        <v>346105.2218999999</v>
       </c>
       <c r="H28" t="n">
-        <v>29.13833333333334</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,40 +1394,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="E29" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="F29" t="n">
-        <v>4800</v>
+        <v>1043.7184</v>
       </c>
       <c r="G29" t="n">
-        <v>29.44</v>
+        <v>346105.2218999999</v>
       </c>
       <c r="H29" t="n">
-        <v>29.15666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,40 +1429,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="C30" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="D30" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F30" t="n">
-        <v>101613.6424</v>
+        <v>919</v>
       </c>
       <c r="G30" t="n">
-        <v>29.50666666666667</v>
+        <v>347024.2218999999</v>
       </c>
       <c r="H30" t="n">
-        <v>29.17</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,40 +1464,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="C31" t="n">
-        <v>30.6</v>
+        <v>28.9</v>
       </c>
       <c r="D31" t="n">
-        <v>30.7</v>
+        <v>28.9</v>
       </c>
       <c r="E31" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="F31" t="n">
-        <v>66040.4449</v>
+        <v>809</v>
       </c>
       <c r="G31" t="n">
-        <v>29.58666666666668</v>
+        <v>347024.2218999999</v>
       </c>
       <c r="H31" t="n">
-        <v>29.195</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1700,40 +1499,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30.6</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>30.5</v>
+        <v>29.3</v>
       </c>
       <c r="D32" t="n">
-        <v>30.6</v>
+        <v>29.3</v>
       </c>
       <c r="E32" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="F32" t="n">
-        <v>22023.8406</v>
+        <v>3181.2791</v>
       </c>
       <c r="G32" t="n">
-        <v>29.66000000000001</v>
+        <v>350205.5009999999</v>
       </c>
       <c r="H32" t="n">
-        <v>29.22</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,40 +1534,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="C33" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="D33" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="E33" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1747.0089</v>
+        <v>5952.0712</v>
       </c>
       <c r="G33" t="n">
-        <v>29.70666666666667</v>
+        <v>344253.4297999999</v>
       </c>
       <c r="H33" t="n">
-        <v>29.23833333333334</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,40 +1569,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="C34" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="D34" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="E34" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1173.3042</v>
+        <v>13937</v>
       </c>
       <c r="G34" t="n">
-        <v>29.75333333333334</v>
+        <v>344253.4297999999</v>
       </c>
       <c r="H34" t="n">
-        <v>29.25833333333334</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,40 +1604,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="C35" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="D35" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="E35" t="n">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="F35" t="n">
-        <v>8988.3388</v>
+        <v>13937</v>
       </c>
       <c r="G35" t="n">
-        <v>29.79333333333334</v>
+        <v>344253.4297999999</v>
       </c>
       <c r="H35" t="n">
-        <v>29.27833333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,40 +1639,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="C36" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="D36" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="E36" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="F36" t="n">
-        <v>23606.5182</v>
+        <v>3009</v>
       </c>
       <c r="G36" t="n">
-        <v>29.82</v>
+        <v>341244.4297999999</v>
       </c>
       <c r="H36" t="n">
-        <v>29.29833333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,40 +1674,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="C37" t="n">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="D37" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="E37" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="F37" t="n">
-        <v>4171.454</v>
+        <v>3836.4326</v>
       </c>
       <c r="G37" t="n">
-        <v>29.9</v>
+        <v>341244.4297999999</v>
       </c>
       <c r="H37" t="n">
-        <v>29.32</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,40 +1709,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="C38" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="D38" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="E38" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="F38" t="n">
-        <v>25351.5748</v>
+        <v>33457</v>
       </c>
       <c r="G38" t="n">
-        <v>29.94</v>
+        <v>374701.4297999999</v>
       </c>
       <c r="H38" t="n">
-        <v>29.34000000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,40 +1744,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="C39" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="D39" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="E39" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="F39" t="n">
-        <v>8358.386</v>
+        <v>1152.2604</v>
       </c>
       <c r="G39" t="n">
-        <v>29.96666666666667</v>
+        <v>373549.1693999999</v>
       </c>
       <c r="H39" t="n">
-        <v>29.36000000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,76 +1779,68 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="C40" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="D40" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="E40" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="F40" t="n">
-        <v>3395.5346</v>
+        <v>1152.2603</v>
       </c>
       <c r="G40" t="n">
-        <v>30.08</v>
+        <v>373549.1693999999</v>
       </c>
       <c r="H40" t="n">
-        <v>29.38000000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="C41" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="D41" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="E41" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="F41" t="n">
-        <v>7486.7647</v>
+        <v>9543.000099999999</v>
       </c>
       <c r="G41" t="n">
-        <v>30.18</v>
+        <v>383092.1694999999</v>
       </c>
       <c r="H41" t="n">
-        <v>29.395</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2114,36 +1849,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="D42" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="F42" t="n">
-        <v>9194.611000000001</v>
+        <v>48145.1424</v>
       </c>
       <c r="G42" t="n">
-        <v>30.22</v>
+        <v>383092.1694999999</v>
       </c>
       <c r="H42" t="n">
-        <v>29.40833333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,36 +1884,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="C43" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="D43" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="F43" t="n">
-        <v>6868.0528</v>
+        <v>26743.4754</v>
       </c>
       <c r="G43" t="n">
-        <v>30.26</v>
+        <v>356348.6940999999</v>
       </c>
       <c r="H43" t="n">
-        <v>29.43166666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2190,36 +1919,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="C44" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="D44" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="E44" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="F44" t="n">
-        <v>1019.5988</v>
+        <v>1292.1908</v>
       </c>
       <c r="G44" t="n">
-        <v>30.26666666666667</v>
+        <v>357640.8848999999</v>
       </c>
       <c r="H44" t="n">
-        <v>29.45166666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2228,36 +1954,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="D45" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="F45" t="n">
-        <v>17541.6485</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>30.25333333333333</v>
+        <v>357650.8848999999</v>
       </c>
       <c r="H45" t="n">
-        <v>29.47</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2266,36 +1989,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="E46" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F46" t="n">
-        <v>37295.2239</v>
+        <v>1282.1908</v>
       </c>
       <c r="G46" t="n">
-        <v>30.16666666666667</v>
+        <v>357650.8848999999</v>
       </c>
       <c r="H46" t="n">
-        <v>29.47666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,36 +2024,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E47" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="F47" t="n">
-        <v>3510</v>
+        <v>700</v>
       </c>
       <c r="G47" t="n">
-        <v>30.13333333333333</v>
+        <v>358350.8848999999</v>
       </c>
       <c r="H47" t="n">
-        <v>29.49666666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,24 +2071,21 @@
         <v>29.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1964</v>
+        <v>13571</v>
       </c>
       <c r="G48" t="n">
-        <v>30.08666666666667</v>
+        <v>358350.8848999999</v>
       </c>
       <c r="H48" t="n">
-        <v>29.50666666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,36 +2094,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C49" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D49" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E49" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F49" t="n">
-        <v>100.3344481605351</v>
+        <v>12543.8407</v>
       </c>
       <c r="G49" t="n">
-        <v>30.06666666666667</v>
+        <v>370894.7255999999</v>
       </c>
       <c r="H49" t="n">
-        <v>29.52333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,36 +2129,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C50" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D50" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E50" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F50" t="n">
-        <v>190.1257</v>
+        <v>700</v>
       </c>
       <c r="G50" t="n">
-        <v>30.00666666666667</v>
+        <v>370894.7255999999</v>
       </c>
       <c r="H50" t="n">
-        <v>29.53166666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,36 +2164,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C51" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="D51" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E51" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>11870</v>
       </c>
       <c r="G51" t="n">
-        <v>29.96</v>
+        <v>359024.7255999999</v>
       </c>
       <c r="H51" t="n">
-        <v>29.54</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,36 +2199,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C52" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="D52" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="E52" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G52" t="n">
-        <v>29.9</v>
+        <v>361124.7255999999</v>
       </c>
       <c r="H52" t="n">
-        <v>29.545</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,36 +2234,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C53" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="D53" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E53" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F53" t="n">
-        <v>7000</v>
+        <v>9300</v>
       </c>
       <c r="G53" t="n">
-        <v>29.84666666666667</v>
+        <v>370424.7255999999</v>
       </c>
       <c r="H53" t="n">
-        <v>29.54333333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2573,33 +2272,30 @@
         <v>29.4</v>
       </c>
       <c r="C54" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="D54" t="n">
         <v>29.4</v>
       </c>
       <c r="E54" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2454</v>
+        <v>47214.6982</v>
       </c>
       <c r="G54" t="n">
-        <v>29.79333333333333</v>
+        <v>323210.0273999999</v>
       </c>
       <c r="H54" t="n">
-        <v>29.54833333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2608,36 +2304,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="C55" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="D55" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="E55" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>11285</v>
       </c>
       <c r="G55" t="n">
-        <v>29.76</v>
+        <v>311925.0273999999</v>
       </c>
       <c r="H55" t="n">
-        <v>29.55666666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,36 +2339,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C56" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="D56" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E56" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F56" t="n">
-        <v>37</v>
+        <v>2250</v>
       </c>
       <c r="G56" t="n">
-        <v>29.70666666666666</v>
+        <v>314175.0273999999</v>
       </c>
       <c r="H56" t="n">
-        <v>29.55666666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,36 +2374,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C57" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="D57" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="E57" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F57" t="n">
-        <v>700</v>
+        <v>57080.7041</v>
       </c>
       <c r="G57" t="n">
-        <v>29.66</v>
+        <v>371255.7314999999</v>
       </c>
       <c r="H57" t="n">
-        <v>29.56333333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,36 +2409,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C58" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="F58" t="n">
-        <v>10064.8194</v>
+        <v>4800</v>
       </c>
       <c r="G58" t="n">
-        <v>29.58666666666667</v>
+        <v>376055.7314999999</v>
       </c>
       <c r="H58" t="n">
-        <v>29.57166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,36 +2444,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="D59" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="E59" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>10728</v>
+        <v>101613.6424</v>
       </c>
       <c r="G59" t="n">
-        <v>29.53333333333333</v>
+        <v>477669.3738999999</v>
       </c>
       <c r="H59" t="n">
-        <v>29.58333333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,36 +2479,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="C60" t="n">
-        <v>29.3</v>
+        <v>30.6</v>
       </c>
       <c r="D60" t="n">
-        <v>29.3</v>
+        <v>30.7</v>
       </c>
       <c r="E60" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="F60" t="n">
-        <v>17.1498</v>
+        <v>66040.4449</v>
       </c>
       <c r="G60" t="n">
-        <v>29.48666666666667</v>
+        <v>543709.8187999999</v>
       </c>
       <c r="H60" t="n">
-        <v>29.59500000000001</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,36 +2514,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.2</v>
+        <v>30.6</v>
       </c>
       <c r="C61" t="n">
-        <v>29.2</v>
+        <v>30.5</v>
       </c>
       <c r="D61" t="n">
-        <v>29.2</v>
+        <v>30.6</v>
       </c>
       <c r="E61" t="n">
-        <v>29.2</v>
+        <v>30.5</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>22023.8406</v>
       </c>
       <c r="G61" t="n">
-        <v>29.48</v>
+        <v>521685.9781999999</v>
       </c>
       <c r="H61" t="n">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2874,36 +2549,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.1</v>
+        <v>30.1</v>
       </c>
       <c r="C62" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="D62" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="E62" t="n">
-        <v>29.1</v>
+        <v>30.1</v>
       </c>
       <c r="F62" t="n">
-        <v>7687.5429</v>
+        <v>1747.0089</v>
       </c>
       <c r="G62" t="n">
-        <v>29.42</v>
+        <v>519938.9692999999</v>
       </c>
       <c r="H62" t="n">
-        <v>29.60333333333334</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,36 +2584,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="C63" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="D63" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="E63" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="F63" t="n">
-        <v>18043</v>
+        <v>1173.3042</v>
       </c>
       <c r="G63" t="n">
-        <v>29.38666666666667</v>
+        <v>519938.9692999999</v>
       </c>
       <c r="H63" t="n">
-        <v>29.59833333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,36 +2619,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29</v>
+        <v>30.3</v>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>30.4</v>
       </c>
       <c r="D64" t="n">
-        <v>29</v>
+        <v>30.4</v>
       </c>
       <c r="E64" t="n">
-        <v>29</v>
+        <v>30.3</v>
       </c>
       <c r="F64" t="n">
-        <v>1469.4427</v>
+        <v>8988.3388</v>
       </c>
       <c r="G64" t="n">
-        <v>29.32666666666667</v>
+        <v>528927.3080999999</v>
       </c>
       <c r="H64" t="n">
-        <v>29.595</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,36 +2654,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="C65" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="D65" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="E65" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="F65" t="n">
-        <v>3564.4517</v>
+        <v>23606.5182</v>
       </c>
       <c r="G65" t="n">
-        <v>29.32</v>
+        <v>505320.7898999999</v>
       </c>
       <c r="H65" t="n">
-        <v>29.59833333333334</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,36 +2689,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="C66" t="n">
-        <v>29.1</v>
+        <v>30.3</v>
       </c>
       <c r="D66" t="n">
-        <v>29.1</v>
+        <v>30.3</v>
       </c>
       <c r="E66" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="F66" t="n">
-        <v>1500</v>
+        <v>4171.454</v>
       </c>
       <c r="G66" t="n">
-        <v>29.29333333333334</v>
+        <v>509492.2438999999</v>
       </c>
       <c r="H66" t="n">
-        <v>29.59666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,36 +2724,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>30.3</v>
       </c>
       <c r="C67" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="D67" t="n">
-        <v>29</v>
+        <v>30.3</v>
       </c>
       <c r="E67" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="F67" t="n">
-        <v>1242.9423</v>
+        <v>25351.5748</v>
       </c>
       <c r="G67" t="n">
-        <v>29.25333333333334</v>
+        <v>484140.6690999999</v>
       </c>
       <c r="H67" t="n">
-        <v>29.59166666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,36 +2759,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="C68" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="D68" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="E68" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>8358.386</v>
       </c>
       <c r="G68" t="n">
-        <v>29.25333333333334</v>
+        <v>484140.6690999999</v>
       </c>
       <c r="H68" t="n">
-        <v>29.59666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,36 +2794,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="C69" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="D69" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="E69" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>3395.5346</v>
       </c>
       <c r="G69" t="n">
-        <v>29.26000000000001</v>
+        <v>487536.2037</v>
       </c>
       <c r="H69" t="n">
-        <v>29.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,36 +2829,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="C70" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="D70" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="E70" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>7486.7647</v>
       </c>
       <c r="G70" t="n">
-        <v>29.24000000000001</v>
+        <v>480049.439</v>
       </c>
       <c r="H70" t="n">
-        <v>29.61</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,36 +2864,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="C71" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="E71" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F71" t="n">
-        <v>1771.5668</v>
+        <v>9194.611000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>29.25333333333334</v>
+        <v>470854.828</v>
       </c>
       <c r="H71" t="n">
-        <v>29.61666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,36 +2899,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="D72" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="E72" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>6868.0528</v>
       </c>
       <c r="G72" t="n">
-        <v>29.28666666666668</v>
+        <v>477722.8808</v>
       </c>
       <c r="H72" t="n">
-        <v>29.62666666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,36 +2934,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="C73" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="D73" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="E73" t="n">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>1019.5988</v>
       </c>
       <c r="G73" t="n">
-        <v>29.28666666666668</v>
+        <v>476703.282</v>
       </c>
       <c r="H73" t="n">
-        <v>29.62833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,36 +2969,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="C74" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="E74" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="F74" t="n">
-        <v>217.5805</v>
+        <v>17541.6485</v>
       </c>
       <c r="G74" t="n">
-        <v>29.27333333333334</v>
+        <v>459161.6335</v>
       </c>
       <c r="H74" t="n">
-        <v>29.62833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,36 +3004,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="D75" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E75" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="F75" t="n">
-        <v>66666.6666</v>
+        <v>37295.2239</v>
       </c>
       <c r="G75" t="n">
-        <v>29.31333333333334</v>
+        <v>421866.4096</v>
       </c>
       <c r="H75" t="n">
-        <v>29.64</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,36 +3039,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="C76" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="F76" t="n">
-        <v>1152.1842</v>
+        <v>3510</v>
       </c>
       <c r="G76" t="n">
-        <v>29.34000000000001</v>
+        <v>425376.4096</v>
       </c>
       <c r="H76" t="n">
-        <v>29.64333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,36 +3074,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C77" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D77" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E77" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F77" t="n">
-        <v>1150</v>
+        <v>1964</v>
       </c>
       <c r="G77" t="n">
-        <v>29.36000000000001</v>
+        <v>423412.4096</v>
       </c>
       <c r="H77" t="n">
-        <v>29.64333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,36 +3109,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C78" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="D78" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="E78" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="F78" t="n">
-        <v>5028.9513</v>
+        <v>100.3344481605351</v>
       </c>
       <c r="G78" t="n">
-        <v>29.36666666666667</v>
+        <v>423512.7440481606</v>
       </c>
       <c r="H78" t="n">
-        <v>29.63666666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,36 +3144,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C79" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D79" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E79" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F79" t="n">
-        <v>12844</v>
+        <v>190.1257</v>
       </c>
       <c r="G79" t="n">
-        <v>29.38000000000001</v>
+        <v>423322.6183481606</v>
       </c>
       <c r="H79" t="n">
-        <v>29.63166666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,36 +3179,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C80" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="D80" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E80" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5729</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>29.34000000000001</v>
+        <v>423322.6183481606</v>
       </c>
       <c r="H80" t="n">
-        <v>29.615</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,36 +3214,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C81" t="n">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="D81" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="E81" t="n">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="F81" t="n">
-        <v>15750</v>
+        <v>1400</v>
       </c>
       <c r="G81" t="n">
-        <v>29.32000000000001</v>
+        <v>421922.6183481606</v>
       </c>
       <c r="H81" t="n">
-        <v>29.59833333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,36 +3249,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C82" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="D82" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="E82" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F82" t="n">
-        <v>14642.1058</v>
+        <v>7000</v>
       </c>
       <c r="G82" t="n">
-        <v>29.32666666666667</v>
+        <v>421922.6183481606</v>
       </c>
       <c r="H82" t="n">
-        <v>29.595</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,36 +3284,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C83" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="D83" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="E83" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F83" t="n">
-        <v>26876.1937</v>
+        <v>2454</v>
       </c>
       <c r="G83" t="n">
-        <v>29.29333333333334</v>
+        <v>421922.6183481606</v>
       </c>
       <c r="H83" t="n">
-        <v>29.58333333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,36 +3319,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="C84" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="D84" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="E84" t="n">
-        <v>28.9</v>
+        <v>29.9</v>
       </c>
       <c r="F84" t="n">
-        <v>20157.1453</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>29.25333333333334</v>
+        <v>421932.6183481606</v>
       </c>
       <c r="H84" t="n">
-        <v>29.56833333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,36 +3354,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="C85" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D85" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E85" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="F85" t="n">
-        <v>11489.5743</v>
+        <v>37</v>
       </c>
       <c r="G85" t="n">
-        <v>29.22666666666667</v>
+        <v>421895.6183481606</v>
       </c>
       <c r="H85" t="n">
-        <v>29.57666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,36 +3389,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C86" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D86" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E86" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F86" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G86" t="n">
-        <v>29.22</v>
+        <v>421895.6183481606</v>
       </c>
       <c r="H86" t="n">
-        <v>29.59000000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,36 +3424,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="C87" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="D87" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E87" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>10064.8194</v>
       </c>
       <c r="G87" t="n">
-        <v>29.22</v>
+        <v>421895.6183481606</v>
       </c>
       <c r="H87" t="n">
-        <v>29.59666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,36 +3459,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C88" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="D88" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="E88" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F88" t="n">
-        <v>4000</v>
+        <v>10728</v>
       </c>
       <c r="G88" t="n">
-        <v>29.26</v>
+        <v>421895.6183481606</v>
       </c>
       <c r="H88" t="n">
-        <v>29.59833333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,36 +3494,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="C89" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="E89" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>17.1498</v>
       </c>
       <c r="G89" t="n">
-        <v>29.32</v>
+        <v>421895.6183481606</v>
       </c>
       <c r="H89" t="n">
-        <v>29.59833333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,36 +3529,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="C90" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="D90" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="E90" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="F90" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>29.34</v>
+        <v>421885.6183481606</v>
       </c>
       <c r="H90" t="n">
-        <v>29.59833333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,36 +3564,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="C91" t="n">
         <v>29.1</v>
       </c>
       <c r="D91" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E91" t="n">
         <v>29.1</v>
       </c>
       <c r="F91" t="n">
-        <v>3124.5031</v>
+        <v>7687.5429</v>
       </c>
       <c r="G91" t="n">
-        <v>29.30666666666666</v>
+        <v>414198.0754481606</v>
       </c>
       <c r="H91" t="n">
-        <v>29.57333333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,36 +3599,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C92" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E92" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="F92" t="n">
-        <v>2710.9776</v>
+        <v>18043</v>
       </c>
       <c r="G92" t="n">
-        <v>29.30666666666666</v>
+        <v>396155.0754481606</v>
       </c>
       <c r="H92" t="n">
-        <v>29.55500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,36 +3634,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C93" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E93" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F93" t="n">
-        <v>23549.0852</v>
+        <v>1469.4427</v>
       </c>
       <c r="G93" t="n">
-        <v>29.31333333333333</v>
+        <v>396155.0754481606</v>
       </c>
       <c r="H93" t="n">
-        <v>29.53833333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,36 +3669,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C94" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D94" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E94" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F94" t="n">
-        <v>1700</v>
+        <v>3564.4517</v>
       </c>
       <c r="G94" t="n">
-        <v>29.31333333333333</v>
+        <v>399719.5271481606</v>
       </c>
       <c r="H94" t="n">
-        <v>29.52166666666668</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,36 +3704,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C95" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D95" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E95" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F95" t="n">
-        <v>787.7641</v>
+        <v>1500</v>
       </c>
       <c r="G95" t="n">
-        <v>29.33999999999999</v>
+        <v>398219.5271481606</v>
       </c>
       <c r="H95" t="n">
-        <v>29.50166666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,36 +3739,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="C96" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="D96" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F96" t="n">
-        <v>1400.384365870307</v>
+        <v>1242.9423</v>
       </c>
       <c r="G96" t="n">
-        <v>29.36</v>
+        <v>396976.5848481606</v>
       </c>
       <c r="H96" t="n">
-        <v>29.48333333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,36 +3774,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C97" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="D97" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="E97" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F97" t="n">
-        <v>2768.1659</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>29.36</v>
+        <v>396986.5848481606</v>
       </c>
       <c r="H97" t="n">
-        <v>29.46000000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,36 +3809,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="C98" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="D98" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="E98" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F98" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>29.34666666666666</v>
+        <v>396996.5848481606</v>
       </c>
       <c r="H98" t="n">
-        <v>29.43500000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,36 +3844,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="C99" t="n">
-        <v>28.4</v>
+        <v>29.6</v>
       </c>
       <c r="D99" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="E99" t="n">
-        <v>28.4</v>
+        <v>29.6</v>
       </c>
       <c r="F99" t="n">
-        <v>121672.0836</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>29.31333333333333</v>
+        <v>397006.5848481606</v>
       </c>
       <c r="H99" t="n">
-        <v>29.40500000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,36 +3879,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="C100" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="D100" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="E100" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2136.2718</v>
+        <v>1771.5668</v>
       </c>
       <c r="G100" t="n">
-        <v>29.28666666666667</v>
+        <v>395235.0180481606</v>
       </c>
       <c r="H100" t="n">
-        <v>29.37833333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,36 +3914,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="C101" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="D101" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="E101" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="F101" t="n">
-        <v>9144.829400000001</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>29.24666666666667</v>
+        <v>395245.0180481606</v>
       </c>
       <c r="H101" t="n">
-        <v>29.35666666666668</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,36 +3949,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="C102" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="D102" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E102" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="F102" t="n">
-        <v>3346</v>
+        <v>1500</v>
       </c>
       <c r="G102" t="n">
-        <v>29.16666666666667</v>
+        <v>393745.0180481606</v>
       </c>
       <c r="H102" t="n">
-        <v>29.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,36 +3984,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="C103" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="D103" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="E103" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="F103" t="n">
-        <v>882.6842</v>
+        <v>217.5805</v>
       </c>
       <c r="G103" t="n">
-        <v>29.08</v>
+        <v>393527.4375481606</v>
       </c>
       <c r="H103" t="n">
-        <v>29.30333333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,36 +4019,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="C104" t="n">
-        <v>28.7</v>
+        <v>29.9</v>
       </c>
       <c r="D104" t="n">
-        <v>28.7</v>
+        <v>29.9</v>
       </c>
       <c r="E104" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F104" t="n">
-        <v>851.7569999999999</v>
+        <v>66666.6666</v>
       </c>
       <c r="G104" t="n">
-        <v>28.99333333333334</v>
+        <v>460194.1041481606</v>
       </c>
       <c r="H104" t="n">
-        <v>29.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,40 +4054,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="C105" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="D105" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="E105" t="n">
-        <v>28.7</v>
+        <v>29.6</v>
       </c>
       <c r="F105" t="n">
-        <v>3661.175</v>
+        <v>1152.1842</v>
       </c>
       <c r="G105" t="n">
-        <v>28.89333333333333</v>
+        <v>459041.9199481606</v>
       </c>
       <c r="H105" t="n">
-        <v>29.25833333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L105" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,44 +4089,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="C106" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="D106" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="E106" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="F106" t="n">
-        <v>1707.2783</v>
+        <v>1150</v>
       </c>
       <c r="G106" t="n">
-        <v>28.85333333333334</v>
+        <v>457891.9199481606</v>
       </c>
       <c r="H106" t="n">
-        <v>29.24500000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L106" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,44 +4124,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D107" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="E107" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F107" t="n">
-        <v>4188.862</v>
+        <v>5028.9513</v>
       </c>
       <c r="G107" t="n">
-        <v>28.82666666666667</v>
+        <v>452862.9686481606</v>
       </c>
       <c r="H107" t="n">
-        <v>29.22833333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="L107" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,42 +4159,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="C108" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="D108" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="E108" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="F108" t="n">
-        <v>4441.1451</v>
+        <v>12844</v>
       </c>
       <c r="G108" t="n">
-        <v>28.79333333333334</v>
+        <v>465706.9686481606</v>
       </c>
       <c r="H108" t="n">
-        <v>29.21500000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,42 +4194,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="C109" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D109" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="E109" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F109" t="n">
-        <v>13916</v>
+        <v>5729</v>
       </c>
       <c r="G109" t="n">
-        <v>28.76</v>
+        <v>459977.9686481606</v>
       </c>
       <c r="H109" t="n">
-        <v>29.19500000000001</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,42 +4229,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C110" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D110" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E110" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F110" t="n">
-        <v>9354</v>
+        <v>15750</v>
       </c>
       <c r="G110" t="n">
-        <v>28.72666666666667</v>
+        <v>459977.9686481606</v>
       </c>
       <c r="H110" t="n">
-        <v>29.18166666666668</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,42 +4264,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="C111" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="D111" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="E111" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="F111" t="n">
-        <v>14971.5052</v>
+        <v>14642.1058</v>
       </c>
       <c r="G111" t="n">
-        <v>28.68</v>
+        <v>474620.0744481606</v>
       </c>
       <c r="H111" t="n">
-        <v>29.16333333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,42 +4299,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="C112" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="D112" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="E112" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="F112" t="n">
-        <v>11308.2624</v>
+        <v>26876.1937</v>
       </c>
       <c r="G112" t="n">
-        <v>28.63333333333333</v>
+        <v>474620.0744481606</v>
       </c>
       <c r="H112" t="n">
-        <v>29.14333333333334</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,42 +4334,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="C113" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="D113" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="E113" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="F113" t="n">
-        <v>3380.4911</v>
+        <v>20157.1453</v>
       </c>
       <c r="G113" t="n">
-        <v>28.60666666666667</v>
+        <v>474620.0744481606</v>
       </c>
       <c r="H113" t="n">
-        <v>29.12500000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4906,44 +4369,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="C114" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="D114" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="E114" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3042.4416</v>
+        <v>11489.5743</v>
       </c>
       <c r="G114" t="n">
-        <v>28.6</v>
+        <v>486109.6487481606</v>
       </c>
       <c r="H114" t="n">
-        <v>29.10666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L114" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,42 +4404,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="C115" t="n">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="D115" t="n">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="E115" t="n">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="F115" t="n">
-        <v>1784</v>
+        <v>1500</v>
       </c>
       <c r="G115" t="n">
-        <v>28.54</v>
+        <v>487609.6487481606</v>
       </c>
       <c r="H115" t="n">
-        <v>29.07333333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,42 +4439,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="C116" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="D116" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="E116" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="F116" t="n">
-        <v>6999.6187</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>28.47333333333334</v>
+        <v>487619.6487481606</v>
       </c>
       <c r="H116" t="n">
-        <v>29.04833333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,44 +4474,1072 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>491619.6487481606</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>30</v>
+      </c>
+      <c r="D118" t="n">
+        <v>30</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>496619.6487481606</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>499619.6487481606</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3124.5031</v>
+      </c>
+      <c r="G120" t="n">
+        <v>496495.1456481606</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2710.9776</v>
+      </c>
+      <c r="G121" t="n">
+        <v>499206.1232481606</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>23549.0852</v>
+      </c>
+      <c r="G122" t="n">
+        <v>475657.0380481606</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G123" t="n">
+        <v>475657.0380481606</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>787.7641</v>
+      </c>
+      <c r="G124" t="n">
+        <v>475657.0380481606</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1400.384365870307</v>
+      </c>
+      <c r="G125" t="n">
+        <v>474256.6536822903</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2768.1659</v>
+      </c>
+      <c r="G126" t="n">
+        <v>471488.4877822903</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>90</v>
+      </c>
+      <c r="G127" t="n">
+        <v>471398.4877822903</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>121672.0836</v>
+      </c>
+      <c r="G128" t="n">
+        <v>349726.4041822903</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2136.2718</v>
+      </c>
+      <c r="G129" t="n">
+        <v>351862.6759822902</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9144.829400000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>351862.6759822902</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3346</v>
+      </c>
+      <c r="G131" t="n">
+        <v>348516.6759822902</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>882.6842</v>
+      </c>
+      <c r="G132" t="n">
+        <v>348516.6759822902</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>851.7569999999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>349368.4329822902</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3661.175</v>
+      </c>
+      <c r="G134" t="n">
+        <v>349368.4329822902</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1707.2783</v>
+      </c>
+      <c r="G135" t="n">
+        <v>347661.1546822902</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4188.862</v>
+      </c>
+      <c r="G136" t="n">
+        <v>351850.0166822902</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4441.1451</v>
+      </c>
+      <c r="G137" t="n">
+        <v>347408.8715822902</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13916</v>
+      </c>
+      <c r="G138" t="n">
+        <v>347408.8715822902</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9354</v>
+      </c>
+      <c r="G139" t="n">
+        <v>347408.8715822902</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>14971.5052</v>
+      </c>
+      <c r="G140" t="n">
+        <v>332437.3663822902</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11308.2624</v>
+      </c>
+      <c r="G141" t="n">
+        <v>321129.1039822902</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3380.4911</v>
+      </c>
+      <c r="G142" t="n">
+        <v>324509.5950822902</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3042.4416</v>
+      </c>
+      <c r="G143" t="n">
+        <v>324509.5950822902</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K143" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>27.9</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C144" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G144" t="n">
+        <v>322725.5950822902</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6999.6187</v>
+      </c>
+      <c r="G145" t="n">
+        <v>315725.9763822902</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K145" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C146" t="n">
         <v>28.2</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D146" t="n">
         <v>28.2</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E146" t="n">
         <v>27.9</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F146" t="n">
         <v>700</v>
       </c>
-      <c r="G117" t="n">
-        <v>28.44666666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>29.03000000000001</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
+      <c r="G146" t="n">
+        <v>316425.9763822902</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
         <v>27.8</v>
       </c>
-      <c r="L117" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="K146" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C2" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D2" t="n">
         <v>29.2</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F2" t="n">
-        <v>10965.9865</v>
+        <v>1292.1908</v>
       </c>
       <c r="G2" t="n">
-        <v>360822.3135</v>
+        <v>29.15999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="D3" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="F3" t="n">
-        <v>42775.0712</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>318047.2423</v>
+        <v>29.21999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C4" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E4" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F4" t="n">
-        <v>2719.9006</v>
+        <v>1282.1908</v>
       </c>
       <c r="G4" t="n">
-        <v>320767.1429</v>
+        <v>29.26</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2427.9999</v>
+        <v>700</v>
       </c>
       <c r="G5" t="n">
-        <v>318339.143</v>
+        <v>29.32</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="F6" t="n">
-        <v>4407</v>
+        <v>13571</v>
       </c>
       <c r="G6" t="n">
-        <v>318339.143</v>
+        <v>29.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="F7" t="n">
-        <v>80000</v>
+        <v>12543.8407</v>
       </c>
       <c r="G7" t="n">
-        <v>318339.143</v>
+        <v>29.52</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2586.0902</v>
+        <v>700</v>
       </c>
       <c r="G8" t="n">
-        <v>318339.143</v>
+        <v>29.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D9" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E9" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>11870</v>
       </c>
       <c r="G9" t="n">
-        <v>318349.143</v>
+        <v>29.54</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C10" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="D10" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="E10" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F10" t="n">
-        <v>856.1643835616438</v>
+        <v>2100</v>
       </c>
       <c r="G10" t="n">
-        <v>318349.143</v>
+        <v>29.56</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C11" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="D11" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E11" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1168.2431</v>
+        <v>9300</v>
       </c>
       <c r="G11" t="n">
-        <v>318349.143</v>
+        <v>29.62</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F12" t="n">
-        <v>6059.0603</v>
+        <v>47214.6982</v>
       </c>
       <c r="G12" t="n">
-        <v>312290.0827</v>
+        <v>29.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C13" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D13" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E13" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F13" t="n">
-        <v>30726.1244</v>
+        <v>11285</v>
       </c>
       <c r="G13" t="n">
-        <v>281563.9582999999</v>
+        <v>29.16</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C14" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="D14" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="E14" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F14" t="n">
-        <v>9120.034600000001</v>
+        <v>2250</v>
       </c>
       <c r="G14" t="n">
-        <v>281563.9582999999</v>
+        <v>29.22</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C15" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="D15" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="E15" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F15" t="n">
-        <v>9120.034600000001</v>
+        <v>57080.7041</v>
       </c>
       <c r="G15" t="n">
-        <v>281563.9582999999</v>
+        <v>29.26</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
       <c r="F16" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="G16" t="n">
-        <v>275063.9582999999</v>
+        <v>29.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="D17" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="E17" t="n">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>1033.8064</v>
+        <v>101613.6424</v>
       </c>
       <c r="G17" t="n">
-        <v>276097.7646999999</v>
+        <v>29.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,67 +1007,65 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="C18" t="n">
-        <v>28.9</v>
+        <v>30.6</v>
       </c>
       <c r="D18" t="n">
-        <v>28.9</v>
+        <v>30.7</v>
       </c>
       <c r="E18" t="n">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="F18" t="n">
-        <v>4307</v>
+        <v>66040.4449</v>
       </c>
       <c r="G18" t="n">
-        <v>276097.7646999999</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>30.6</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>22023.8406</v>
       </c>
       <c r="G19" t="n">
-        <v>276117.7646999999</v>
+        <v>30.22</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1056,39 +1074,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>30.1</v>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>30.1</v>
       </c>
       <c r="F20" t="n">
-        <v>5321.8846</v>
+        <v>1747.0089</v>
       </c>
       <c r="G20" t="n">
-        <v>276117.7646999999</v>
+        <v>30.29999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1097,39 +1110,34 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="C21" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="D21" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="E21" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="F21" t="n">
-        <v>40000</v>
+        <v>1173.3042</v>
       </c>
       <c r="G21" t="n">
-        <v>316117.7646999999</v>
+        <v>30.33999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1143,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="C22" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="D22" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="E22" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="F22" t="n">
-        <v>45163.6195</v>
+        <v>8988.3388</v>
       </c>
       <c r="G22" t="n">
-        <v>361281.3842</v>
+        <v>30.38</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1178,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.1</v>
+        <v>30.4</v>
       </c>
       <c r="C23" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="D23" t="n">
-        <v>29.1</v>
+        <v>30.4</v>
       </c>
       <c r="E23" t="n">
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
       <c r="F23" t="n">
-        <v>700</v>
+        <v>23606.5182</v>
       </c>
       <c r="G23" t="n">
-        <v>360581.3842</v>
+        <v>30.29999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1213,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.2</v>
+        <v>30.2</v>
       </c>
       <c r="C24" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="D24" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="F24" t="n">
-        <v>51858.8916</v>
+        <v>4171.454</v>
       </c>
       <c r="G24" t="n">
-        <v>412440.2757999999</v>
+        <v>30.26</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1248,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="C25" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="D25" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="E25" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="F25" t="n">
-        <v>1444.0089</v>
+        <v>25351.5748</v>
       </c>
       <c r="G25" t="n">
-        <v>410996.2668999999</v>
+        <v>30.26</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1283,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="C26" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="D26" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="E26" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="F26" t="n">
-        <v>6050</v>
+        <v>8358.386</v>
       </c>
       <c r="G26" t="n">
-        <v>404946.2668999999</v>
+        <v>30.26</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1318,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28.9</v>
+        <v>30.4</v>
       </c>
       <c r="C27" t="n">
-        <v>28.8</v>
+        <v>30.4</v>
       </c>
       <c r="D27" t="n">
-        <v>29.3</v>
+        <v>30.4</v>
       </c>
       <c r="E27" t="n">
-        <v>28.8</v>
+        <v>30.4</v>
       </c>
       <c r="F27" t="n">
-        <v>21922.0712</v>
+        <v>3395.5346</v>
       </c>
       <c r="G27" t="n">
-        <v>383024.1956999999</v>
+        <v>30.26</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1353,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="C28" t="n">
-        <v>28.6</v>
+        <v>30.1</v>
       </c>
       <c r="D28" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="E28" t="n">
-        <v>28.6</v>
+        <v>30.1</v>
       </c>
       <c r="F28" t="n">
-        <v>36918.9738</v>
+        <v>7486.7647</v>
       </c>
       <c r="G28" t="n">
-        <v>346105.2218999999</v>
+        <v>30.24</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1388,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.6</v>
+        <v>30.1</v>
       </c>
       <c r="C29" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>28.6</v>
+        <v>30.1</v>
       </c>
       <c r="E29" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>1043.7184</v>
+        <v>9194.611000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>346105.2218999999</v>
+        <v>30.18</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1423,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>28.9</v>
+        <v>30.4</v>
       </c>
       <c r="D30" t="n">
-        <v>28.9</v>
+        <v>30.4</v>
       </c>
       <c r="E30" t="n">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
-        <v>919</v>
+        <v>6868.0528</v>
       </c>
       <c r="G30" t="n">
-        <v>347024.2218999999</v>
+        <v>30.22</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1458,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="C31" t="n">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="D31" t="n">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="E31" t="n">
-        <v>28.9</v>
+        <v>30.1</v>
       </c>
       <c r="F31" t="n">
-        <v>809</v>
+        <v>1019.5988</v>
       </c>
       <c r="G31" t="n">
-        <v>347024.2218999999</v>
+        <v>30.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1493,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="C32" t="n">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="E32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>3181.2791</v>
+        <v>17541.6485</v>
       </c>
       <c r="G32" t="n">
-        <v>350205.5009999999</v>
+        <v>30.12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1528,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D33" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F33" t="n">
-        <v>5952.0712</v>
+        <v>37295.2239</v>
       </c>
       <c r="G33" t="n">
-        <v>344253.4297999999</v>
+        <v>29.96</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1563,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="C34" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F34" t="n">
-        <v>13937</v>
+        <v>3510</v>
       </c>
       <c r="G34" t="n">
-        <v>344253.4297999999</v>
+        <v>29.96</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1598,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="C35" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D35" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E35" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="F35" t="n">
-        <v>13937</v>
+        <v>1964</v>
       </c>
       <c r="G35" t="n">
-        <v>344253.4297999999</v>
+        <v>29.78</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1633,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="C36" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="D36" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="E36" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="F36" t="n">
-        <v>3009</v>
+        <v>100.3344481605351</v>
       </c>
       <c r="G36" t="n">
-        <v>341244.4297999999</v>
+        <v>29.74</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1668,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C37" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="D37" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E37" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="F37" t="n">
-        <v>3836.4326</v>
+        <v>190.1257</v>
       </c>
       <c r="G37" t="n">
-        <v>341244.4297999999</v>
+        <v>29.64</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1703,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C38" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D38" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E38" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F38" t="n">
-        <v>33457</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>374701.4297999999</v>
+        <v>29.68</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1738,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C39" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D39" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="E39" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F39" t="n">
-        <v>1152.2604</v>
+        <v>1400</v>
       </c>
       <c r="G39" t="n">
-        <v>373549.1693999999</v>
+        <v>29.56</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1773,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C40" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D40" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="E40" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F40" t="n">
-        <v>1152.2603</v>
+        <v>7000</v>
       </c>
       <c r="G40" t="n">
-        <v>373549.1693999999</v>
+        <v>29.54</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1808,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="C41" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D41" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E41" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="F41" t="n">
-        <v>9543.000099999999</v>
+        <v>2454</v>
       </c>
       <c r="G41" t="n">
-        <v>383092.1694999999</v>
+        <v>29.44</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="C42" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="D42" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="E42" t="n">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="F42" t="n">
-        <v>48145.1424</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>383092.1694999999</v>
+        <v>29.52</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="C43" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D43" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E43" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F43" t="n">
-        <v>26743.4754</v>
+        <v>37</v>
       </c>
       <c r="G43" t="n">
-        <v>356348.6940999999</v>
+        <v>29.48000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1913,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C44" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D44" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E44" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F44" t="n">
-        <v>1292.1908</v>
+        <v>700</v>
       </c>
       <c r="G44" t="n">
-        <v>357640.8848999999</v>
+        <v>29.46000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1948,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C45" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D45" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E45" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>10064.8194</v>
       </c>
       <c r="G45" t="n">
-        <v>357650.8848999999</v>
+        <v>29.44000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C46" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D46" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E46" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F46" t="n">
-        <v>1282.1908</v>
+        <v>10728</v>
       </c>
       <c r="G46" t="n">
-        <v>357650.8848999999</v>
+        <v>29.42000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2018,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="C47" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="D47" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="E47" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="F47" t="n">
-        <v>700</v>
+        <v>17.1498</v>
       </c>
       <c r="G47" t="n">
-        <v>358350.8848999999</v>
+        <v>29.30000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C48" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D48" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="E48" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F48" t="n">
-        <v>13571</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>358350.8848999999</v>
+        <v>29.28000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2088,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C49" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="D49" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E49" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="F49" t="n">
-        <v>12543.8407</v>
+        <v>7687.5429</v>
       </c>
       <c r="G49" t="n">
-        <v>370894.7255999999</v>
+        <v>29.24</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="E50" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="F50" t="n">
-        <v>700</v>
+        <v>18043</v>
       </c>
       <c r="G50" t="n">
-        <v>370894.7255999999</v>
+        <v>29.18</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E51" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F51" t="n">
-        <v>11870</v>
+        <v>1469.4427</v>
       </c>
       <c r="G51" t="n">
-        <v>359024.7255999999</v>
+        <v>29.12</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2193,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="C52" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="D52" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="E52" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="F52" t="n">
-        <v>2100</v>
+        <v>3564.4517</v>
       </c>
       <c r="G52" t="n">
-        <v>361124.7255999999</v>
+        <v>29.14</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="C53" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="D53" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E53" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="F53" t="n">
-        <v>9300</v>
+        <v>1500</v>
       </c>
       <c r="G53" t="n">
-        <v>370424.7255999999</v>
+        <v>29.12</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C54" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D54" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E54" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F54" t="n">
-        <v>47214.6982</v>
+        <v>1242.9423</v>
       </c>
       <c r="G54" t="n">
-        <v>323210.0273999999</v>
+        <v>29.06</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="C55" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="D55" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="E55" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="F55" t="n">
-        <v>11285</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>311925.0273999999</v>
+        <v>29.14</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C56" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D56" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E56" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2250</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>314175.0273999999</v>
+        <v>29.24</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2368,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C57" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="D57" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="E57" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F57" t="n">
-        <v>57080.7041</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>371255.7314999999</v>
+        <v>29.28</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2403,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E58" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F58" t="n">
-        <v>4800</v>
+        <v>1771.5668</v>
       </c>
       <c r="G58" t="n">
-        <v>376055.7314999999</v>
+        <v>29.36</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2438,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C59" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="D59" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F59" t="n">
-        <v>101613.6424</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>477669.3738999999</v>
+        <v>29.56</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="C60" t="n">
-        <v>30.6</v>
+        <v>29.3</v>
       </c>
       <c r="D60" t="n">
-        <v>30.7</v>
+        <v>29.3</v>
       </c>
       <c r="E60" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="F60" t="n">
-        <v>66040.4449</v>
+        <v>1500</v>
       </c>
       <c r="G60" t="n">
-        <v>543709.8187999999</v>
+        <v>29.54</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.6</v>
+        <v>29.1</v>
       </c>
       <c r="C61" t="n">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="D61" t="n">
-        <v>30.6</v>
+        <v>29.1</v>
       </c>
       <c r="E61" t="n">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="F61" t="n">
-        <v>22023.8406</v>
+        <v>217.5805</v>
       </c>
       <c r="G61" t="n">
-        <v>521685.9781999999</v>
+        <v>29.46</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2543,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="C62" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="D62" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="E62" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1747.0089</v>
+        <v>66666.6666</v>
       </c>
       <c r="G62" t="n">
-        <v>519938.9692999999</v>
+        <v>29.52</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2578,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C63" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="D63" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="E63" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="F63" t="n">
-        <v>1173.3042</v>
+        <v>1152.1842</v>
       </c>
       <c r="G63" t="n">
-        <v>519938.9692999999</v>
+        <v>29.54</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="C64" t="n">
-        <v>30.4</v>
+        <v>29.4</v>
       </c>
       <c r="D64" t="n">
-        <v>30.4</v>
+        <v>29.4</v>
       </c>
       <c r="E64" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="F64" t="n">
-        <v>8988.3388</v>
+        <v>1150</v>
       </c>
       <c r="G64" t="n">
-        <v>528927.3080999999</v>
+        <v>29.46</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2648,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.4</v>
+        <v>29.3</v>
       </c>
       <c r="C65" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="D65" t="n">
-        <v>30.4</v>
+        <v>29.3</v>
       </c>
       <c r="E65" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="F65" t="n">
-        <v>23606.5182</v>
+        <v>5028.9513</v>
       </c>
       <c r="G65" t="n">
-        <v>505320.7898999999</v>
+        <v>29.42</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2683,34 +2735,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="C66" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="D66" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="E66" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="F66" t="n">
-        <v>4171.454</v>
+        <v>12844</v>
       </c>
       <c r="G66" t="n">
-        <v>509492.2438999999</v>
+        <v>29.44</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2718,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="C67" t="n">
-        <v>30.2</v>
+        <v>28.8</v>
       </c>
       <c r="D67" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="E67" t="n">
-        <v>30.2</v>
+        <v>28.8</v>
       </c>
       <c r="F67" t="n">
-        <v>25351.5748</v>
+        <v>5729</v>
       </c>
       <c r="G67" t="n">
-        <v>484140.6690999999</v>
+        <v>29.22</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,34 +2807,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="C68" t="n">
-        <v>30.2</v>
+        <v>28.8</v>
       </c>
       <c r="D68" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="E68" t="n">
-        <v>30.2</v>
+        <v>28.8</v>
       </c>
       <c r="F68" t="n">
-        <v>8358.386</v>
+        <v>15750</v>
       </c>
       <c r="G68" t="n">
-        <v>484140.6690999999</v>
+        <v>29.06</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2788,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="C69" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="D69" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="E69" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="F69" t="n">
-        <v>3395.5346</v>
+        <v>14642.1058</v>
       </c>
       <c r="G69" t="n">
-        <v>487536.2037</v>
+        <v>28.96</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2823,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="C70" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="D70" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="E70" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="F70" t="n">
-        <v>7486.7647</v>
+        <v>26876.1937</v>
       </c>
       <c r="G70" t="n">
-        <v>480049.439</v>
+        <v>28.92000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2858,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="D71" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="E71" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F71" t="n">
-        <v>9194.611000000001</v>
+        <v>20157.1453</v>
       </c>
       <c r="G71" t="n">
-        <v>470854.828</v>
+        <v>28.86000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2893,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="C72" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="D72" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F72" t="n">
-        <v>6868.0528</v>
+        <v>11489.5743</v>
       </c>
       <c r="G72" t="n">
-        <v>477722.8808</v>
+        <v>28.94</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2928,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="C73" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="D73" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="E73" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="F73" t="n">
-        <v>1019.5988</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="n">
-        <v>476703.282</v>
+        <v>29.06</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2963,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D74" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E74" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F74" t="n">
-        <v>17541.6485</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>459161.6335</v>
+        <v>29.24</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2998,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="C75" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="D75" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E75" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F75" t="n">
-        <v>37295.2239</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="n">
-        <v>421866.4096</v>
+        <v>29.44</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3033,13 +3095,14 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C76" t="n">
         <v>30</v>
@@ -3048,19 +3111,19 @@
         <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="F76" t="n">
-        <v>3510</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>425376.4096</v>
+        <v>29.66</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3068,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="C77" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="D77" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
       <c r="E77" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="F77" t="n">
-        <v>1964</v>
+        <v>3000</v>
       </c>
       <c r="G77" t="n">
-        <v>423412.4096</v>
+        <v>29.86</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3103,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C78" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="D78" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E78" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="F78" t="n">
-        <v>100.3344481605351</v>
+        <v>3124.5031</v>
       </c>
       <c r="G78" t="n">
-        <v>423512.7440481606</v>
+        <v>29.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C79" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D79" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E79" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F79" t="n">
-        <v>190.1257</v>
+        <v>2710.9776</v>
       </c>
       <c r="G79" t="n">
-        <v>423322.6183481606</v>
+        <v>29.72</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3173,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C80" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D80" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="E80" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>23549.0852</v>
       </c>
       <c r="G80" t="n">
-        <v>423322.6183481606</v>
+        <v>29.57999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C81" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D81" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E81" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F81" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="G81" t="n">
-        <v>421922.6183481606</v>
+        <v>29.41999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C82" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D82" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E82" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F82" t="n">
-        <v>7000</v>
+        <v>787.7641</v>
       </c>
       <c r="G82" t="n">
-        <v>421922.6183481606</v>
+        <v>29.21999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C83" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="D83" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E83" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F83" t="n">
-        <v>2454</v>
+        <v>1400.384365870307</v>
       </c>
       <c r="G83" t="n">
-        <v>421922.6183481606</v>
+        <v>29.21999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="C84" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="D84" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="E84" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>2768.1659</v>
       </c>
       <c r="G84" t="n">
-        <v>421932.6183481606</v>
+        <v>29.11999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C85" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="D85" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E85" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="F85" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G85" t="n">
-        <v>421895.6183481606</v>
+        <v>29.01999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C86" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="D86" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E86" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="F86" t="n">
-        <v>700</v>
+        <v>121672.0836</v>
       </c>
       <c r="G86" t="n">
-        <v>421895.6183481606</v>
+        <v>28.86</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="C87" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="D87" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="E87" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="F87" t="n">
-        <v>10064.8194</v>
+        <v>2136.2718</v>
       </c>
       <c r="G87" t="n">
-        <v>421895.6183481606</v>
+        <v>28.78</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C88" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="D88" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E88" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="F88" t="n">
-        <v>10728</v>
+        <v>9144.829400000001</v>
       </c>
       <c r="G88" t="n">
-        <v>421895.6183481606</v>
+        <v>28.72000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="C89" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="D89" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="E89" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="F89" t="n">
-        <v>17.1498</v>
+        <v>3346</v>
       </c>
       <c r="G89" t="n">
-        <v>421895.6183481606</v>
+        <v>28.66</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="C90" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="D90" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="E90" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>882.6842</v>
       </c>
       <c r="G90" t="n">
-        <v>421885.6183481606</v>
+        <v>28.64</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C91" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D91" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="E91" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F91" t="n">
-        <v>7687.5429</v>
+        <v>851.7569999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>414198.0754481606</v>
+        <v>28.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,168 +3671,201 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="C92" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E92" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F92" t="n">
-        <v>18043</v>
+        <v>3661.175</v>
       </c>
       <c r="G92" t="n">
-        <v>396155.0754481606</v>
+        <v>28.68</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K92" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D93" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E93" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="F93" t="n">
-        <v>1469.4427</v>
+        <v>1707.2783</v>
       </c>
       <c r="G93" t="n">
-        <v>396155.0754481606</v>
+        <v>28.61999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K93" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="D94" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E94" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="F94" t="n">
-        <v>3564.4517</v>
+        <v>4188.862</v>
       </c>
       <c r="G94" t="n">
-        <v>399719.5271481606</v>
+        <v>28.7</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C95" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D95" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="E95" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F95" t="n">
-        <v>1500</v>
+        <v>4441.1451</v>
       </c>
       <c r="G95" t="n">
-        <v>398219.5271481606</v>
+        <v>28.71999999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29</v>
+      </c>
+      <c r="K95" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="C96" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D96" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E96" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F96" t="n">
-        <v>1242.9423</v>
+        <v>13916</v>
       </c>
       <c r="G96" t="n">
-        <v>396976.5848481606</v>
+        <v>28.71999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3763,33 +3874,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="C97" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="D97" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="E97" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>9354</v>
       </c>
       <c r="G97" t="n">
-        <v>396986.5848481606</v>
+        <v>28.71999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3798,33 +3916,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="C98" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="D98" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="E98" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>14971.5052</v>
       </c>
       <c r="G98" t="n">
-        <v>396996.5848481606</v>
+        <v>28.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,33 +3958,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="C99" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="D99" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="E99" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>11308.2624</v>
       </c>
       <c r="G99" t="n">
-        <v>397006.5848481606</v>
+        <v>28.53999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,1680 +4000,238 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="C100" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="D100" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="E100" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="F100" t="n">
-        <v>1771.5668</v>
+        <v>3380.4911</v>
       </c>
       <c r="G100" t="n">
-        <v>395235.0180481606</v>
+        <v>28.46</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29.8</v>
+        <v>28.3</v>
       </c>
       <c r="C101" t="n">
-        <v>29.8</v>
+        <v>28.3</v>
       </c>
       <c r="D101" t="n">
-        <v>29.8</v>
+        <v>28.3</v>
       </c>
       <c r="E101" t="n">
-        <v>29.8</v>
+        <v>28.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>3042.4416</v>
       </c>
       <c r="G101" t="n">
-        <v>395245.0180481606</v>
+        <v>28.38</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="C102" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="D102" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="E102" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="F102" t="n">
-        <v>1500</v>
+        <v>1784</v>
       </c>
       <c r="G102" t="n">
-        <v>393745.0180481606</v>
+        <v>28.22000000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K102" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="C103" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="D103" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="E103" t="n">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="F103" t="n">
-        <v>217.5805</v>
+        <v>6999.6187</v>
       </c>
       <c r="G103" t="n">
-        <v>393527.4375481606</v>
+        <v>28.1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.5</v>
+        <v>27.9</v>
       </c>
       <c r="C104" t="n">
-        <v>29.9</v>
+        <v>28.2</v>
       </c>
       <c r="D104" t="n">
-        <v>29.9</v>
+        <v>28.2</v>
       </c>
       <c r="E104" t="n">
-        <v>29.5</v>
+        <v>27.9</v>
       </c>
       <c r="F104" t="n">
-        <v>66666.6666</v>
+        <v>700</v>
       </c>
       <c r="G104" t="n">
-        <v>460194.1041481606</v>
+        <v>28.1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C105" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D105" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E105" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1152.1842</v>
-      </c>
-      <c r="G105" t="n">
-        <v>459041.9199481606</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D106" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E106" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1150</v>
-      </c>
-      <c r="G106" t="n">
-        <v>457891.9199481606</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5028.9513</v>
-      </c>
-      <c r="G107" t="n">
-        <v>452862.9686481606</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>12844</v>
-      </c>
-      <c r="G108" t="n">
-        <v>465706.9686481606</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D109" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>5729</v>
-      </c>
-      <c r="G109" t="n">
-        <v>459977.9686481606</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C110" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D110" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E110" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>15750</v>
-      </c>
-      <c r="G110" t="n">
-        <v>459977.9686481606</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C111" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D111" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E111" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F111" t="n">
-        <v>14642.1058</v>
-      </c>
-      <c r="G111" t="n">
-        <v>474620.0744481606</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C112" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E112" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F112" t="n">
-        <v>26876.1937</v>
-      </c>
-      <c r="G112" t="n">
-        <v>474620.0744481606</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C113" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>20157.1453</v>
-      </c>
-      <c r="G113" t="n">
-        <v>474620.0744481606</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C114" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>11489.5743</v>
-      </c>
-      <c r="G114" t="n">
-        <v>486109.6487481606</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G115" t="n">
-        <v>487609.6487481606</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C116" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D116" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E116" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>487619.6487481606</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="D117" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G117" t="n">
-        <v>491619.6487481606</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C118" t="n">
-        <v>30</v>
-      </c>
-      <c r="D118" t="n">
-        <v>30</v>
-      </c>
-      <c r="E118" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>496619.6487481606</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G119" t="n">
-        <v>499619.6487481606</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C120" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3124.5031</v>
-      </c>
-      <c r="G120" t="n">
-        <v>496495.1456481606</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C121" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2710.9776</v>
-      </c>
-      <c r="G121" t="n">
-        <v>499206.1232481606</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>23549.0852</v>
-      </c>
-      <c r="G122" t="n">
-        <v>475657.0380481606</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C123" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G123" t="n">
-        <v>475657.0380481606</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>787.7641</v>
-      </c>
-      <c r="G124" t="n">
-        <v>475657.0380481606</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1400.384365870307</v>
-      </c>
-      <c r="G125" t="n">
-        <v>474256.6536822903</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E126" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2768.1659</v>
-      </c>
-      <c r="G126" t="n">
-        <v>471488.4877822903</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C127" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E127" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>90</v>
-      </c>
-      <c r="G127" t="n">
-        <v>471398.4877822903</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>121672.0836</v>
-      </c>
-      <c r="G128" t="n">
-        <v>349726.4041822903</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2136.2718</v>
-      </c>
-      <c r="G129" t="n">
-        <v>351862.6759822902</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C130" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>9144.829400000001</v>
-      </c>
-      <c r="G130" t="n">
-        <v>351862.6759822902</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3346</v>
-      </c>
-      <c r="G131" t="n">
-        <v>348516.6759822902</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C132" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>882.6842</v>
-      </c>
-      <c r="G132" t="n">
-        <v>348516.6759822902</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>851.7569999999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>349368.4329822902</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3661.175</v>
-      </c>
-      <c r="G134" t="n">
-        <v>349368.4329822902</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1707.2783</v>
-      </c>
-      <c r="G135" t="n">
-        <v>347661.1546822902</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>29</v>
-      </c>
-      <c r="C136" t="n">
-        <v>29</v>
-      </c>
-      <c r="D136" t="n">
-        <v>29</v>
-      </c>
-      <c r="E136" t="n">
-        <v>29</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4188.862</v>
-      </c>
-      <c r="G136" t="n">
-        <v>351850.0166822902</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4441.1451</v>
-      </c>
-      <c r="G137" t="n">
-        <v>347408.8715822902</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>13916</v>
-      </c>
-      <c r="G138" t="n">
-        <v>347408.8715822902</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>9354</v>
-      </c>
-      <c r="G139" t="n">
-        <v>347408.8715822902</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C140" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D140" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F140" t="n">
-        <v>14971.5052</v>
-      </c>
-      <c r="G140" t="n">
-        <v>332437.3663822902</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>11308.2624</v>
-      </c>
-      <c r="G141" t="n">
-        <v>321129.1039822902</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D142" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E142" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3380.4911</v>
-      </c>
-      <c r="G142" t="n">
-        <v>324509.5950822902</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3042.4416</v>
-      </c>
-      <c r="G143" t="n">
-        <v>324509.5950822902</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1784</v>
-      </c>
-      <c r="G144" t="n">
-        <v>322725.5950822902</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F145" t="n">
-        <v>6999.6187</v>
-      </c>
-      <c r="G145" t="n">
-        <v>315725.9763822902</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K145" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>700</v>
-      </c>
-      <c r="G146" t="n">
-        <v>316425.9763822902</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K146" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="C2" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="D2" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E2" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1292.1908</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>29.15999999999999</v>
+        <v>323759.7806</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C3" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D3" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>29.21999999999999</v>
+        <v>323769.7806</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.8</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1282.1908</v>
+        <v>13328.4798</v>
       </c>
       <c r="G4" t="n">
-        <v>29.26</v>
+        <v>310441.3008</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -534,8 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +556,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="E5" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F5" t="n">
-        <v>700</v>
+        <v>34340.2105</v>
       </c>
       <c r="G5" t="n">
-        <v>29.32</v>
+        <v>276101.0903</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="C6" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="D6" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="E6" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="F6" t="n">
-        <v>13571</v>
+        <v>2290.1528</v>
       </c>
       <c r="G6" t="n">
-        <v>29.4</v>
+        <v>278391.2431</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,31 +636,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="D7" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="E7" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="F7" t="n">
-        <v>12543.8407</v>
+        <v>1706.5936</v>
       </c>
       <c r="G7" t="n">
-        <v>29.52</v>
+        <v>280097.8367</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -654,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="E8" t="n">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="F8" t="n">
-        <v>700</v>
+        <v>6025.4992</v>
       </c>
       <c r="G8" t="n">
-        <v>29.6</v>
+        <v>280097.8367</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +700,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +718,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="C9" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D9" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="E9" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F9" t="n">
-        <v>11870</v>
+        <v>1500</v>
       </c>
       <c r="G9" t="n">
-        <v>29.54</v>
+        <v>278597.8367</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +742,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +760,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="D10" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="E10" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="F10" t="n">
-        <v>2100</v>
+        <v>1826.825</v>
       </c>
       <c r="G10" t="n">
-        <v>29.56</v>
+        <v>276771.0117</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +796,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="D11" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="E11" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="F11" t="n">
-        <v>9300</v>
+        <v>1103.821</v>
       </c>
       <c r="G11" t="n">
-        <v>29.62</v>
+        <v>276771.0117</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +832,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="E12" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F12" t="n">
-        <v>47214.6982</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>29.4</v>
+        <v>276781.0117</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +868,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C13" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D13" t="n">
         <v>28.6</v>
       </c>
-      <c r="D13" t="n">
-        <v>28.7</v>
-      </c>
       <c r="E13" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F13" t="n">
-        <v>11285</v>
+        <v>12409.0882</v>
       </c>
       <c r="G13" t="n">
-        <v>29.16</v>
+        <v>264371.9235</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +904,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="C14" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="D14" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E14" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="F14" t="n">
-        <v>2250</v>
+        <v>2497.6684</v>
       </c>
       <c r="G14" t="n">
-        <v>29.22</v>
+        <v>266869.5919000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +940,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n">
-        <v>57080.7041</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>29.26</v>
+        <v>266879.5919000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +976,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="E16" t="n">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="F16" t="n">
-        <v>4800</v>
+        <v>23444.267</v>
       </c>
       <c r="G16" t="n">
-        <v>29.3</v>
+        <v>243435.3249000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="D17" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F17" t="n">
-        <v>101613.6424</v>
+        <v>1033.7077</v>
       </c>
       <c r="G17" t="n">
-        <v>29.6</v>
+        <v>243435.3249000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1048,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="C18" t="n">
-        <v>30.6</v>
+        <v>28.9</v>
       </c>
       <c r="D18" t="n">
-        <v>30.7</v>
+        <v>28.9</v>
       </c>
       <c r="E18" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="F18" t="n">
-        <v>66040.4449</v>
+        <v>1500</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>243435.3249000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1084,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.6</v>
+        <v>28.9</v>
       </c>
       <c r="C19" t="n">
-        <v>30.5</v>
+        <v>28.9</v>
       </c>
       <c r="D19" t="n">
-        <v>30.6</v>
+        <v>28.9</v>
       </c>
       <c r="E19" t="n">
-        <v>30.5</v>
+        <v>28.9</v>
       </c>
       <c r="F19" t="n">
-        <v>22023.8406</v>
+        <v>1276.9084</v>
       </c>
       <c r="G19" t="n">
-        <v>30.22</v>
+        <v>243435.3249000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1120,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="C20" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="D20" t="n">
-        <v>30.2</v>
+        <v>29.2</v>
       </c>
       <c r="E20" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="F20" t="n">
-        <v>1747.0089</v>
+        <v>43991.3562</v>
       </c>
       <c r="G20" t="n">
-        <v>30.29999999999999</v>
+        <v>243435.3249000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1156,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="E21" t="n">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="F21" t="n">
-        <v>1173.3042</v>
+        <v>126098.5992</v>
       </c>
       <c r="G21" t="n">
-        <v>30.33999999999999</v>
+        <v>369533.9241000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1192,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="D22" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="E22" t="n">
-        <v>30.3</v>
+        <v>28.9</v>
       </c>
       <c r="F22" t="n">
-        <v>8988.3388</v>
+        <v>16478.1476</v>
       </c>
       <c r="G22" t="n">
-        <v>30.38</v>
+        <v>353055.7765</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1228,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.4</v>
+        <v>29.1</v>
       </c>
       <c r="C23" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="E23" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>23606.5182</v>
+        <v>19297.4726</v>
       </c>
       <c r="G23" t="n">
-        <v>30.29999999999999</v>
+        <v>372353.2491</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1264,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="E24" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>4171.454</v>
+        <v>3765.1005</v>
       </c>
       <c r="G24" t="n">
-        <v>30.26</v>
+        <v>372353.2491</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1300,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="C25" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="E25" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>25351.5748</v>
+        <v>3337.1126</v>
       </c>
       <c r="G25" t="n">
-        <v>30.26</v>
+        <v>372353.2491</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,28 +1336,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="C26" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="E26" t="n">
-        <v>30.2</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>8358.386</v>
+        <v>3380.6749</v>
       </c>
       <c r="G26" t="n">
-        <v>30.26</v>
+        <v>372353.2491</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1372,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="D27" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3395.5346</v>
+        <v>16209.2226</v>
       </c>
       <c r="G27" t="n">
-        <v>30.26</v>
+        <v>356144.0265</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1408,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="C28" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="D28" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="E28" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="F28" t="n">
-        <v>7486.7647</v>
+        <v>1616.9149</v>
       </c>
       <c r="G28" t="n">
-        <v>30.24</v>
+        <v>357760.9414</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1444,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="D29" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="F29" t="n">
-        <v>9194.611000000001</v>
+        <v>4253.7613</v>
       </c>
       <c r="G29" t="n">
-        <v>30.18</v>
+        <v>353507.1801</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1480,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="C30" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>30.4</v>
+        <v>29.4</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F30" t="n">
-        <v>6868.0528</v>
+        <v>3650.8531</v>
       </c>
       <c r="G30" t="n">
-        <v>30.22</v>
+        <v>349856.327</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1516,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30.1</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="D31" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="E31" t="n">
-        <v>30.1</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>1019.5988</v>
+        <v>10965.9865</v>
       </c>
       <c r="G31" t="n">
-        <v>30.2</v>
+        <v>360822.3135</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1552,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="n">
-        <v>17541.6485</v>
+        <v>42775.0712</v>
       </c>
       <c r="G32" t="n">
-        <v>30.12</v>
+        <v>318047.2423</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1588,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="C33" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="E33" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F33" t="n">
-        <v>37295.2239</v>
+        <v>2719.9006</v>
       </c>
       <c r="G33" t="n">
-        <v>29.96</v>
+        <v>320767.1429</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1624,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="F34" t="n">
-        <v>3510</v>
+        <v>2427.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>29.96</v>
+        <v>318339.143</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,22 +1660,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C35" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="E35" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n">
-        <v>1964</v>
+        <v>4407</v>
       </c>
       <c r="G35" t="n">
-        <v>29.78</v>
+        <v>318339.143</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1696,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="E36" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n">
-        <v>100.3344481605351</v>
+        <v>80000</v>
       </c>
       <c r="G36" t="n">
-        <v>29.74</v>
+        <v>318339.143</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1732,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>190.1257</v>
+        <v>2586.0902</v>
       </c>
       <c r="G37" t="n">
-        <v>29.64</v>
+        <v>318339.143</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1768,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C38" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D38" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="E38" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>29.68</v>
+        <v>318349.143</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1804,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C39" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D39" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E39" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1400</v>
+        <v>856.1643835616438</v>
       </c>
       <c r="G39" t="n">
-        <v>29.56</v>
+        <v>318349.143</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1840,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C40" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D40" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E40" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F40" t="n">
-        <v>7000</v>
+        <v>1168.2431</v>
       </c>
       <c r="G40" t="n">
-        <v>29.54</v>
+        <v>318349.143</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1876,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="E41" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n">
-        <v>2454</v>
+        <v>6059.0603</v>
       </c>
       <c r="G41" t="n">
-        <v>29.44</v>
+        <v>312290.0827</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1912,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="C42" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="D42" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="E42" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>30726.1244</v>
       </c>
       <c r="G42" t="n">
-        <v>29.52</v>
+        <v>281563.9582999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,28 +1948,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C43" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D43" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E43" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="F43" t="n">
-        <v>37</v>
+        <v>9120.034600000001</v>
       </c>
       <c r="G43" t="n">
-        <v>29.48000000000001</v>
+        <v>281563.9582999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +1984,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C44" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D44" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E44" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="F44" t="n">
-        <v>700</v>
+        <v>9120.034600000001</v>
       </c>
       <c r="G44" t="n">
-        <v>29.46000000000001</v>
+        <v>281563.9582999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2020,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="C45" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="D45" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="E45" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="F45" t="n">
-        <v>10064.8194</v>
+        <v>6500</v>
       </c>
       <c r="G45" t="n">
-        <v>29.44000000000001</v>
+        <v>275063.9582999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2056,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D46" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E46" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="F46" t="n">
-        <v>10728</v>
+        <v>1033.8064</v>
       </c>
       <c r="G46" t="n">
-        <v>29.42000000000001</v>
+        <v>276097.7646999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2092,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C47" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D47" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E47" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="F47" t="n">
-        <v>17.1498</v>
+        <v>4307</v>
       </c>
       <c r="G47" t="n">
-        <v>29.30000000000001</v>
+        <v>276097.7646999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2128,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E48" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>29.28000000000001</v>
+        <v>276117.7646999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2164,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>7687.5429</v>
+        <v>5321.8846</v>
       </c>
       <c r="G49" t="n">
-        <v>29.24</v>
+        <v>276117.7646999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2200,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D50" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E50" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F50" t="n">
-        <v>18043</v>
+        <v>40000</v>
       </c>
       <c r="G50" t="n">
-        <v>29.18</v>
+        <v>316117.7646999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2236,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="C51" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="D51" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="E51" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1469.4427</v>
+        <v>45163.6195</v>
       </c>
       <c r="G51" t="n">
-        <v>29.12</v>
+        <v>361281.3842</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2272,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="C52" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="D52" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="E52" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F52" t="n">
-        <v>3564.4517</v>
+        <v>700</v>
       </c>
       <c r="G52" t="n">
-        <v>29.14</v>
+        <v>360581.3842</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2308,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C53" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D53" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="E53" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>51858.8916</v>
       </c>
       <c r="G53" t="n">
-        <v>29.12</v>
+        <v>412440.2757999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2344,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="C54" t="n">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="D54" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="E54" t="n">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="F54" t="n">
-        <v>1242.9423</v>
+        <v>1444.0089</v>
       </c>
       <c r="G54" t="n">
-        <v>29.06</v>
+        <v>410996.2668999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2380,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="C55" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="D55" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="E55" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>6050</v>
       </c>
       <c r="G55" t="n">
-        <v>29.14</v>
+        <v>404946.2668999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2416,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="C56" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="D56" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="E56" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>21922.0712</v>
       </c>
       <c r="G56" t="n">
-        <v>29.24</v>
+        <v>383024.1956999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,28 +2452,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.6</v>
+        <v>28.8</v>
       </c>
       <c r="C57" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="D57" t="n">
-        <v>29.6</v>
+        <v>28.8</v>
       </c>
       <c r="E57" t="n">
-        <v>29.6</v>
+        <v>28.6</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>36918.9738</v>
       </c>
       <c r="G57" t="n">
-        <v>29.28</v>
+        <v>346105.2218999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2488,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="C58" t="n">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="D58" t="n">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="E58" t="n">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="F58" t="n">
-        <v>1771.5668</v>
+        <v>1043.7184</v>
       </c>
       <c r="G58" t="n">
-        <v>29.36</v>
+        <v>346105.2218999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2524,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="C59" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="D59" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="E59" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>919</v>
       </c>
       <c r="G59" t="n">
-        <v>29.56</v>
+        <v>347024.2218999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,28 +2560,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="C60" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D60" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E60" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="F60" t="n">
-        <v>1500</v>
+        <v>809</v>
       </c>
       <c r="G60" t="n">
-        <v>29.54</v>
+        <v>347024.2218999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,22 +2596,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C61" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D61" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E61" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F61" t="n">
-        <v>217.5805</v>
+        <v>3181.2791</v>
       </c>
       <c r="G61" t="n">
-        <v>29.46</v>
+        <v>350205.5009999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2632,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C62" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="D62" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="E62" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="F62" t="n">
-        <v>66666.6666</v>
+        <v>5952.0712</v>
       </c>
       <c r="G62" t="n">
-        <v>29.52</v>
+        <v>344253.4297999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2668,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="C63" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="D63" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="E63" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="F63" t="n">
-        <v>1152.1842</v>
+        <v>13937</v>
       </c>
       <c r="G63" t="n">
-        <v>29.54</v>
+        <v>344253.4297999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2704,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="C64" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D64" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E64" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F64" t="n">
-        <v>1150</v>
+        <v>13937</v>
       </c>
       <c r="G64" t="n">
-        <v>29.46</v>
+        <v>344253.4297999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2740,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="C65" t="n">
         <v>29.1</v>
       </c>
       <c r="D65" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="E65" t="n">
         <v>29.1</v>
       </c>
       <c r="F65" t="n">
-        <v>5028.9513</v>
+        <v>3009</v>
       </c>
       <c r="G65" t="n">
-        <v>29.42</v>
+        <v>341244.4297999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2745,19 +2779,19 @@
         <v>29.2</v>
       </c>
       <c r="C66" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D66" t="n">
         <v>29.2</v>
       </c>
       <c r="E66" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F66" t="n">
-        <v>12844</v>
+        <v>3836.4326</v>
       </c>
       <c r="G66" t="n">
-        <v>29.44</v>
+        <v>341244.4297999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2781,19 +2815,19 @@
         <v>29.2</v>
       </c>
       <c r="C67" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="D67" t="n">
         <v>29.2</v>
       </c>
       <c r="E67" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="F67" t="n">
-        <v>5729</v>
+        <v>33457</v>
       </c>
       <c r="G67" t="n">
-        <v>29.22</v>
+        <v>374701.4297999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2848,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C68" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D68" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E68" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="F68" t="n">
-        <v>15750</v>
+        <v>1152.2604</v>
       </c>
       <c r="G68" t="n">
-        <v>29.06</v>
+        <v>373549.1693999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2884,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C69" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D69" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E69" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F69" t="n">
-        <v>14642.1058</v>
+        <v>1152.2603</v>
       </c>
       <c r="G69" t="n">
-        <v>28.96</v>
+        <v>373549.1693999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2920,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C70" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="D70" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E70" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F70" t="n">
-        <v>26876.1937</v>
+        <v>9543.000099999999</v>
       </c>
       <c r="G70" t="n">
-        <v>28.92000000000001</v>
+        <v>383092.1694999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2956,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C71" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="D71" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E71" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F71" t="n">
-        <v>20157.1453</v>
+        <v>48145.1424</v>
       </c>
       <c r="G71" t="n">
-        <v>28.86000000000001</v>
+        <v>383092.1694999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2992,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C72" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D72" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E72" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F72" t="n">
-        <v>11489.5743</v>
+        <v>26743.4754</v>
       </c>
       <c r="G72" t="n">
-        <v>28.94</v>
+        <v>356348.6940999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3028,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C73" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D73" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E73" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>1292.1908</v>
       </c>
       <c r="G73" t="n">
-        <v>29.06</v>
+        <v>357640.8848999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3064,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="C74" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D74" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="E74" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="F74" t="n">
         <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>29.24</v>
+        <v>357650.8848999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3069,19 +3103,19 @@
         <v>29.4</v>
       </c>
       <c r="C75" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="D75" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="E75" t="n">
         <v>29.4</v>
       </c>
       <c r="F75" t="n">
-        <v>4000</v>
+        <v>1282.1908</v>
       </c>
       <c r="G75" t="n">
-        <v>29.44</v>
+        <v>357650.8848999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3136,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E76" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="G76" t="n">
-        <v>29.66</v>
+        <v>358350.8848999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3172,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C77" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="D77" t="n">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="E77" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F77" t="n">
-        <v>3000</v>
+        <v>13571</v>
       </c>
       <c r="G77" t="n">
-        <v>29.86</v>
+        <v>358350.8848999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3208,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C78" t="n">
         <v>29.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>29.1</v>
       </c>
       <c r="D78" t="n">
         <v>29.8</v>
       </c>
       <c r="E78" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="F78" t="n">
-        <v>3124.5031</v>
+        <v>12543.8407</v>
       </c>
       <c r="G78" t="n">
-        <v>29.8</v>
+        <v>370894.7255999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3244,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="C79" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="D79" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="E79" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="F79" t="n">
-        <v>2710.9776</v>
+        <v>700</v>
       </c>
       <c r="G79" t="n">
-        <v>29.72</v>
+        <v>370894.7255999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3280,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C80" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D80" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E80" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F80" t="n">
-        <v>23549.0852</v>
+        <v>11870</v>
       </c>
       <c r="G80" t="n">
-        <v>29.57999999999999</v>
+        <v>359024.7255999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3316,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C81" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="D81" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="E81" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F81" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="G81" t="n">
-        <v>29.41999999999999</v>
+        <v>361124.7255999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3352,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="C82" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="D82" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E82" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="F82" t="n">
-        <v>787.7641</v>
+        <v>9300</v>
       </c>
       <c r="G82" t="n">
-        <v>29.21999999999999</v>
+        <v>370424.7255999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3388,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C83" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D83" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E83" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1400.384365870307</v>
+        <v>47214.6982</v>
       </c>
       <c r="G83" t="n">
-        <v>29.21999999999999</v>
+        <v>323210.0273999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3424,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C84" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D84" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E84" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F84" t="n">
-        <v>2768.1659</v>
+        <v>11285</v>
       </c>
       <c r="G84" t="n">
-        <v>29.11999999999999</v>
+        <v>311925.0273999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3460,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="C85" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="D85" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="E85" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="F85" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="G85" t="n">
-        <v>29.01999999999999</v>
+        <v>314175.0273999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3496,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.7</v>
+        <v>29.4</v>
       </c>
       <c r="C86" t="n">
-        <v>28.4</v>
+        <v>29.8</v>
       </c>
       <c r="D86" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="E86" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="F86" t="n">
-        <v>121672.0836</v>
+        <v>57080.7041</v>
       </c>
       <c r="G86" t="n">
-        <v>28.86</v>
+        <v>371255.7314999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3532,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
       <c r="C87" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="E87" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
       <c r="F87" t="n">
-        <v>2136.2718</v>
+        <v>4800</v>
       </c>
       <c r="G87" t="n">
-        <v>28.78</v>
+        <v>376055.7314999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3568,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="C88" t="n">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
       <c r="D88" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="E88" t="n">
-        <v>28.8</v>
+        <v>30</v>
       </c>
       <c r="F88" t="n">
-        <v>9144.829400000001</v>
+        <v>101613.6424</v>
       </c>
       <c r="G88" t="n">
-        <v>28.72000000000001</v>
+        <v>477669.3738999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3604,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.6</v>
+        <v>30.1</v>
       </c>
       <c r="C89" t="n">
-        <v>28.6</v>
+        <v>30.6</v>
       </c>
       <c r="D89" t="n">
-        <v>28.6</v>
+        <v>30.7</v>
       </c>
       <c r="E89" t="n">
-        <v>28.6</v>
+        <v>30.1</v>
       </c>
       <c r="F89" t="n">
-        <v>3346</v>
+        <v>66040.4449</v>
       </c>
       <c r="G89" t="n">
-        <v>28.66</v>
+        <v>543709.8187999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3640,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.6</v>
+        <v>30.6</v>
       </c>
       <c r="C90" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="D90" t="n">
-        <v>28.6</v>
+        <v>30.6</v>
       </c>
       <c r="E90" t="n">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="F90" t="n">
-        <v>882.6842</v>
+        <v>22023.8406</v>
       </c>
       <c r="G90" t="n">
-        <v>28.64</v>
+        <v>521685.9781999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,28 +3676,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.7</v>
+        <v>30.1</v>
       </c>
       <c r="C91" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="D91" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="E91" t="n">
-        <v>28.7</v>
+        <v>30.1</v>
       </c>
       <c r="F91" t="n">
-        <v>851.7569999999999</v>
+        <v>1747.0089</v>
       </c>
       <c r="G91" t="n">
-        <v>28.7</v>
+        <v>519938.9692999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,35 +3712,31 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="C92" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="D92" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="E92" t="n">
-        <v>28.7</v>
+        <v>30.2</v>
       </c>
       <c r="F92" t="n">
-        <v>3661.175</v>
+        <v>1173.3042</v>
       </c>
       <c r="G92" t="n">
-        <v>28.68</v>
+        <v>519938.9692999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K92" t="n">
-        <v>28.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3718,520 +3748,3000 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8988.3388</v>
+      </c>
+      <c r="G93" t="n">
+        <v>528927.3080999999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>23606.5182</v>
+      </c>
+      <c r="G94" t="n">
+        <v>505320.7898999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4171.454</v>
+      </c>
+      <c r="G95" t="n">
+        <v>509492.2438999999</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25351.5748</v>
+      </c>
+      <c r="G96" t="n">
+        <v>484140.6690999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8358.386</v>
+      </c>
+      <c r="G97" t="n">
+        <v>484140.6690999999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3395.5346</v>
+      </c>
+      <c r="G98" t="n">
+        <v>487536.2037</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7486.7647</v>
+      </c>
+      <c r="G99" t="n">
+        <v>480049.439</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30</v>
+      </c>
+      <c r="D100" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9194.611000000001</v>
+      </c>
+      <c r="G100" t="n">
+        <v>470854.828</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>30</v>
+      </c>
+      <c r="C101" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>30</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6868.0528</v>
+      </c>
+      <c r="G101" t="n">
+        <v>477722.8808</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1019.5988</v>
+      </c>
+      <c r="G102" t="n">
+        <v>476703.282</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>30</v>
+      </c>
+      <c r="D103" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>30</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17541.6485</v>
+      </c>
+      <c r="G103" t="n">
+        <v>459161.6335</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>30</v>
+      </c>
+      <c r="C104" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>30</v>
+      </c>
+      <c r="E104" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>37295.2239</v>
+      </c>
+      <c r="G104" t="n">
+        <v>421866.4096</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>30</v>
+      </c>
+      <c r="D105" t="n">
+        <v>30</v>
+      </c>
+      <c r="E105" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3510</v>
+      </c>
+      <c r="G105" t="n">
+        <v>425376.4096</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1964</v>
+      </c>
+      <c r="G106" t="n">
+        <v>423412.4096</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100.3344481605351</v>
+      </c>
+      <c r="G107" t="n">
+        <v>423512.7440481606</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>190.1257</v>
+      </c>
+      <c r="G108" t="n">
+        <v>423322.6183481606</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100</v>
+      </c>
+      <c r="G109" t="n">
+        <v>423322.6183481606</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G110" t="n">
+        <v>421922.6183481606</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>421922.6183481606</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2454</v>
+      </c>
+      <c r="G112" t="n">
+        <v>421922.6183481606</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>421932.6183481606</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>37</v>
+      </c>
+      <c r="G114" t="n">
+        <v>421895.6183481606</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>700</v>
+      </c>
+      <c r="G115" t="n">
+        <v>421895.6183481606</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10064.8194</v>
+      </c>
+      <c r="G116" t="n">
+        <v>421895.6183481606</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10728</v>
+      </c>
+      <c r="G117" t="n">
+        <v>421895.6183481606</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17.1498</v>
+      </c>
+      <c r="G118" t="n">
+        <v>421895.6183481606</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>421885.6183481606</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7687.5429</v>
+      </c>
+      <c r="G120" t="n">
+        <v>414198.0754481606</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>29</v>
+      </c>
+      <c r="C121" t="n">
+        <v>29</v>
+      </c>
+      <c r="D121" t="n">
+        <v>29</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29</v>
+      </c>
+      <c r="F121" t="n">
+        <v>18043</v>
+      </c>
+      <c r="G121" t="n">
+        <v>396155.0754481606</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>29</v>
+      </c>
+      <c r="C122" t="n">
+        <v>29</v>
+      </c>
+      <c r="D122" t="n">
+        <v>29</v>
+      </c>
+      <c r="E122" t="n">
+        <v>29</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1469.4427</v>
+      </c>
+      <c r="G122" t="n">
+        <v>396155.0754481606</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3564.4517</v>
+      </c>
+      <c r="G123" t="n">
+        <v>399719.5271481606</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G124" t="n">
+        <v>398219.5271481606</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>29</v>
+      </c>
+      <c r="C125" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>29</v>
+      </c>
+      <c r="E125" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1242.9423</v>
+      </c>
+      <c r="G125" t="n">
+        <v>396976.5848481606</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="n">
+        <v>396986.5848481606</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>396996.5848481606</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>397006.5848481606</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1771.5668</v>
+      </c>
+      <c r="G129" t="n">
+        <v>395235.0180481606</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>395245.0180481606</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G131" t="n">
+        <v>393745.0180481606</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>217.5805</v>
+      </c>
+      <c r="G132" t="n">
+        <v>393527.4375481606</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>66666.6666</v>
+      </c>
+      <c r="G133" t="n">
+        <v>460194.1041481606</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1152.1842</v>
+      </c>
+      <c r="G134" t="n">
+        <v>459041.9199481606</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G135" t="n">
+        <v>457891.9199481606</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5028.9513</v>
+      </c>
+      <c r="G136" t="n">
+        <v>452862.9686481606</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>12844</v>
+      </c>
+      <c r="G137" t="n">
+        <v>465706.9686481606</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5729</v>
+      </c>
+      <c r="G138" t="n">
+        <v>459977.9686481606</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15750</v>
+      </c>
+      <c r="G139" t="n">
+        <v>459977.9686481606</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>14642.1058</v>
+      </c>
+      <c r="G140" t="n">
+        <v>474620.0744481606</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>26876.1937</v>
+      </c>
+      <c r="G141" t="n">
+        <v>474620.0744481606</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20157.1453</v>
+      </c>
+      <c r="G142" t="n">
+        <v>474620.0744481606</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11489.5743</v>
+      </c>
+      <c r="G143" t="n">
+        <v>486109.6487481606</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G144" t="n">
+        <v>487609.6487481606</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="n">
+        <v>487619.6487481606</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>491619.6487481606</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30</v>
+      </c>
+      <c r="D147" t="n">
+        <v>30</v>
+      </c>
+      <c r="E147" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>496619.6487481606</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>499619.6487481606</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3124.5031</v>
+      </c>
+      <c r="G149" t="n">
+        <v>496495.1456481606</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2710.9776</v>
+      </c>
+      <c r="G150" t="n">
+        <v>499206.1232481606</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>23549.0852</v>
+      </c>
+      <c r="G151" t="n">
+        <v>475657.0380481606</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G152" t="n">
+        <v>475657.0380481606</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>787.7641</v>
+      </c>
+      <c r="G153" t="n">
+        <v>475657.0380481606</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1400.384365870307</v>
+      </c>
+      <c r="G154" t="n">
+        <v>474256.6536822903</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2768.1659</v>
+      </c>
+      <c r="G155" t="n">
+        <v>471488.4877822903</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>90</v>
+      </c>
+      <c r="G156" t="n">
+        <v>471398.4877822903</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>121672.0836</v>
+      </c>
+      <c r="G157" t="n">
+        <v>349726.4041822903</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2136.2718</v>
+      </c>
+      <c r="G158" t="n">
+        <v>351862.6759822902</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9144.829400000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>351862.6759822902</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>28.6</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C160" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3346</v>
+      </c>
+      <c r="G160" t="n">
+        <v>348516.6759822902</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>882.6842</v>
+      </c>
+      <c r="G161" t="n">
+        <v>348516.6759822902</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>851.7569999999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>349368.4329822902</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3661.175</v>
+      </c>
+      <c r="G163" t="n">
+        <v>349368.4329822902</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C164" t="n">
         <v>28.5</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D164" t="n">
         <v>28.6</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E164" t="n">
         <v>28.5</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F164" t="n">
         <v>1707.2783</v>
       </c>
-      <c r="G93" t="n">
-        <v>28.61999999999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
+      <c r="G164" t="n">
+        <v>347661.1546822902</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29</v>
+      </c>
+      <c r="C165" t="n">
+        <v>29</v>
+      </c>
+      <c r="D165" t="n">
+        <v>29</v>
+      </c>
+      <c r="E165" t="n">
+        <v>29</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4188.862</v>
+      </c>
+      <c r="G165" t="n">
+        <v>351850.0166822902</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>28.7</v>
       </c>
-      <c r="K93" t="n">
+      <c r="C166" t="n">
         <v>28.7</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="D166" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4441.1451</v>
+      </c>
+      <c r="G166" t="n">
+        <v>347408.8715822902</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>13916</v>
+      </c>
+      <c r="G167" t="n">
+        <v>347408.8715822902</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9354</v>
+      </c>
+      <c r="G168" t="n">
+        <v>347408.8715822902</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D169" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14971.5052</v>
+      </c>
+      <c r="G169" t="n">
+        <v>332437.3663822902</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11308.2624</v>
+      </c>
+      <c r="G170" t="n">
+        <v>321129.1039822902</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3380.4911</v>
+      </c>
+      <c r="G171" t="n">
+        <v>324509.5950822902</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3042.4416</v>
+      </c>
+      <c r="G172" t="n">
+        <v>324509.5950822902</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G173" t="n">
+        <v>322725.5950822902</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>6999.6187</v>
+      </c>
+      <c r="G174" t="n">
+        <v>315725.9763822902</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K174" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>700</v>
+      </c>
+      <c r="G175" t="n">
+        <v>316425.9763822902</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K175" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>29</v>
-      </c>
-      <c r="C94" t="n">
-        <v>29</v>
-      </c>
-      <c r="D94" t="n">
-        <v>29</v>
-      </c>
-      <c r="E94" t="n">
-        <v>29</v>
-      </c>
-      <c r="F94" t="n">
-        <v>4188.862</v>
-      </c>
-      <c r="G94" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K94" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>4441.1451</v>
-      </c>
-      <c r="G95" t="n">
-        <v>28.71999999999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>29</v>
-      </c>
-      <c r="K95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>13916</v>
-      </c>
-      <c r="G96" t="n">
-        <v>28.71999999999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>9354</v>
-      </c>
-      <c r="G97" t="n">
-        <v>28.71999999999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="C98" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D98" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E98" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F98" t="n">
-        <v>14971.5052</v>
-      </c>
-      <c r="G98" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>11308.2624</v>
-      </c>
-      <c r="G99" t="n">
-        <v>28.53999999999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C100" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>3380.4911</v>
-      </c>
-      <c r="G100" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K100" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3042.4416</v>
-      </c>
-      <c r="G101" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K101" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C102" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E102" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1784</v>
-      </c>
-      <c r="G102" t="n">
-        <v>28.22000000000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K102" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C103" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D103" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6999.6187</v>
-      </c>
-      <c r="G103" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K103" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>700</v>
-      </c>
-      <c r="G104" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>323759.7806</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>323769.7806</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="J3" t="n">
         <v>28.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +521,23 @@
         <v>310441.3008</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J4" t="n">
         <v>28.8</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +562,23 @@
         <v>276101.0903</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J5" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K5" t="n">
         <v>28.8</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,18 +603,19 @@
         <v>278391.2431</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,22 +640,23 @@
         <v>280097.8367</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="J7" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,22 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,22 +722,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,16 +755,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -816,16 +788,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,16 +821,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,16 +854,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -922,18 +885,19 @@
         <v>266869.5919000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -958,18 +922,23 @@
         <v>266879.5919000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>28.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,16 +965,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,16 +1004,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,16 +1037,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1104,16 +1070,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,16 +1103,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1176,16 +1136,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,16 +1169,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1248,16 +1202,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1284,16 +1235,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1320,16 +1268,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1356,16 +1301,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1390,18 +1332,21 @@
         <v>356144.0265</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1428,16 +1373,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1464,16 +1410,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,16 +1447,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1536,16 +1484,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,16 +1521,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1608,16 +1558,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,16 +1595,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1678,18 +1630,21 @@
         <v>318339.143</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,16 +1671,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1750,18 +1706,21 @@
         <v>318339.143</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1786,18 +1745,21 @@
         <v>318349.143</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1824,16 +1786,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1860,16 +1823,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1896,16 +1860,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1932,16 +1897,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1966,18 +1932,21 @@
         <v>281563.9582999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,16 +1973,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2038,18 +2008,21 @@
         <v>275063.9582999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2074,18 +2047,21 @@
         <v>276097.7646999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2112,16 +2088,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,16 +2125,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2184,16 +2162,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2220,16 +2199,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2256,16 +2236,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2292,16 +2273,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2328,16 +2310,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2364,16 +2347,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2400,16 +2384,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2436,16 +2421,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2472,16 +2458,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2506,18 +2493,21 @@
         <v>346105.2218999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2542,18 +2532,21 @@
         <v>347024.2218999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2578,18 +2571,21 @@
         <v>347024.2218999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2614,18 +2610,21 @@
         <v>350205.5009999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2650,18 +2649,21 @@
         <v>344253.4297999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2688,16 +2690,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2724,16 +2727,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2760,16 +2764,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,16 +2801,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2832,16 +2838,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2868,16 +2875,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2904,16 +2912,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2940,16 +2949,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2976,16 +2986,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3012,16 +3023,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3048,16 +3060,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3084,16 +3097,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3120,16 +3134,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3156,16 +3171,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3192,16 +3208,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3228,16 +3245,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3264,16 +3282,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3300,16 +3319,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3336,16 +3356,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3372,16 +3393,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3406,18 +3428,17 @@
         <v>323210.0273999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3442,18 +3463,15 @@
         <v>311925.0273999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3480,16 +3498,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3516,16 +3531,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3550,18 +3562,15 @@
         <v>376055.7314999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3586,18 +3595,15 @@
         <v>477669.3738999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3624,16 +3630,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3658,18 +3661,15 @@
         <v>521685.9781999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3694,18 +3694,15 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3730,18 +3727,15 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3766,18 +3760,15 @@
         <v>528927.3080999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3802,18 +3793,15 @@
         <v>505320.7898999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3838,18 +3826,15 @@
         <v>509492.2438999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3874,18 +3859,15 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3910,18 +3892,15 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3946,18 +3925,15 @@
         <v>487536.2037</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3982,18 +3958,15 @@
         <v>480049.439</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,18 +3991,15 @@
         <v>470854.828</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4054,18 +4024,15 @@
         <v>477722.8808</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4090,18 +4057,15 @@
         <v>476703.282</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4128,16 +4092,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4164,16 +4125,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4200,16 +4158,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4236,16 +4191,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4272,16 +4224,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4308,16 +4257,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4344,16 +4290,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4380,16 +4323,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4416,16 +4356,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4452,16 +4389,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4488,16 +4422,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4524,16 +4455,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4560,16 +4488,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4596,16 +4521,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4632,16 +4554,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4668,16 +4587,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4704,16 +4620,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4740,16 +4653,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4776,16 +4686,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4812,16 +4719,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4848,16 +4752,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4884,16 +4785,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4920,16 +4818,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4956,16 +4851,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4992,16 +4884,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5028,16 +4917,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5064,16 +4950,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5100,16 +4983,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5136,16 +5016,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5172,16 +5049,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5208,16 +5082,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5244,16 +5115,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5280,16 +5148,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5316,16 +5181,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5352,16 +5214,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5388,16 +5247,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5424,16 +5280,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5460,16 +5313,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5496,16 +5346,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5532,16 +5379,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5568,16 +5412,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5604,16 +5445,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5640,16 +5478,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5676,16 +5511,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5712,16 +5544,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5746,18 +5575,15 @@
         <v>499619.6487481606</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5782,18 +5608,15 @@
         <v>496495.1456481606</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5818,18 +5641,15 @@
         <v>499206.1232481606</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5854,18 +5674,15 @@
         <v>475657.0380481606</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5892,16 +5709,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5926,18 +5740,15 @@
         <v>475657.0380481606</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5964,16 +5775,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5998,18 +5806,15 @@
         <v>471488.4877822903</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6036,16 +5841,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6072,16 +5874,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6106,18 +5905,15 @@
         <v>351862.6759822902</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6142,18 +5938,15 @@
         <v>351862.6759822902</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6180,16 +5973,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6216,16 +6006,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6252,16 +6039,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6286,18 +6070,15 @@
         <v>349368.4329822902</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6324,16 +6105,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6360,16 +6138,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6396,16 +6171,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6432,16 +6204,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6468,16 +6237,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6504,16 +6270,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6540,16 +6303,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6576,16 +6336,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6612,16 +6369,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6648,16 +6402,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6682,22 +6433,15 @@
         <v>315725.9763822902</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K174" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6722,28 +6466,17 @@
         <v>316425.9763822902</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K175" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>323759.7806</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>323769.7806</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>28.8</v>
@@ -521,7 +521,7 @@
         <v>310441.3008</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>29.3</v>
@@ -562,7 +562,7 @@
         <v>276101.0903</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>28.6</v>
@@ -603,7 +603,7 @@
         <v>278391.2431</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>28.5</v>
@@ -640,7 +640,7 @@
         <v>280097.8367</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>28.7</v>
@@ -885,14 +885,10 @@
         <v>266869.5919000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -922,19 +918,11 @@
         <v>266879.5919000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -966,14 +954,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1332,17 +1314,11 @@
         <v>356144.0265</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1351,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1412,11 +1384,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1449,11 +1417,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1486,11 +1450,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1483,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1560,11 +1516,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1597,11 +1549,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1630,17 +1578,11 @@
         <v>318339.143</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1615,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1706,17 +1644,11 @@
         <v>318339.143</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1745,17 +1677,11 @@
         <v>318349.143</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1788,11 +1714,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +1747,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1862,11 +1780,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1899,11 +1813,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1932,17 +1842,11 @@
         <v>281563.9582999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1975,11 +1879,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2008,17 +1908,11 @@
         <v>275063.9582999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2047,17 +1941,11 @@
         <v>276097.7646999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2090,11 +1978,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2127,11 +2011,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2164,11 +2044,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2201,11 +2077,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2238,11 +2110,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2275,11 +2143,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2312,11 +2176,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2349,11 +2209,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2386,11 +2242,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2423,11 +2275,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2460,11 +2308,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2493,17 +2337,11 @@
         <v>346105.2218999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2532,17 +2370,11 @@
         <v>347024.2218999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2571,17 +2403,11 @@
         <v>347024.2218999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2610,17 +2436,11 @@
         <v>350205.5009999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2649,17 +2469,11 @@
         <v>344253.4297999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2692,11 +2506,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2539,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2766,11 +2572,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2803,11 +2605,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2840,11 +2638,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2877,11 +2671,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2914,11 +2704,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2951,11 +2737,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2988,11 +2770,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +2803,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3062,11 +2836,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3099,11 +2869,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3136,11 +2902,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2935,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3210,11 +2968,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3247,11 +3001,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3284,11 +3034,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3321,11 +3067,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3358,11 +3100,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3395,11 +3133,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3428,16 +3162,14 @@
         <v>323210.0273999999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3463,7 +3195,7 @@
         <v>311925.0273999999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3562,7 +3294,7 @@
         <v>376055.7314999999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3595,7 +3327,7 @@
         <v>477669.3738999999</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3661,7 +3393,7 @@
         <v>521685.9781999999</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3694,7 +3426,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3727,7 +3459,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3760,7 +3492,7 @@
         <v>528927.3080999999</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3793,7 +3525,7 @@
         <v>505320.7898999999</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3826,7 +3558,7 @@
         <v>509492.2438999999</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3859,7 +3591,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3892,7 +3624,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3925,7 +3657,7 @@
         <v>487536.2037</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3958,7 +3690,7 @@
         <v>480049.439</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3991,7 +3723,7 @@
         <v>470854.828</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4024,7 +3756,7 @@
         <v>477722.8808</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4057,7 +3789,7 @@
         <v>476703.282</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4090,7 +3822,7 @@
         <v>459161.6335</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4123,7 +3855,7 @@
         <v>421866.4096</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4156,7 +3888,7 @@
         <v>425376.4096</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4189,7 +3921,7 @@
         <v>423412.4096</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4222,7 +3954,7 @@
         <v>423512.7440481606</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4255,7 +3987,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4288,7 +4020,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4321,7 +4053,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4354,7 +4086,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4387,7 +4119,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4420,7 +4152,7 @@
         <v>421932.6183481606</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4453,7 +4185,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4486,7 +4218,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4519,7 +4251,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4552,7 +4284,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4585,7 +4317,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4618,7 +4350,7 @@
         <v>421885.6183481606</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4651,7 +4383,7 @@
         <v>414198.0754481606</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4684,7 +4416,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4717,7 +4449,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4750,7 +4482,7 @@
         <v>399719.5271481606</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4816,7 +4548,7 @@
         <v>396976.5848481606</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4849,7 +4581,7 @@
         <v>396986.5848481606</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4882,7 +4614,7 @@
         <v>396996.5848481606</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4915,7 +4647,7 @@
         <v>397006.5848481606</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4948,7 +4680,7 @@
         <v>395235.0180481606</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4981,7 +4713,7 @@
         <v>395245.0180481606</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5014,7 +4746,7 @@
         <v>393745.0180481606</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5212,7 +4944,7 @@
         <v>465706.9686481606</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5245,7 +4977,7 @@
         <v>459977.9686481606</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5278,7 +5010,7 @@
         <v>459977.9686481606</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5311,7 +5043,7 @@
         <v>474620.0744481606</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5344,7 +5076,7 @@
         <v>474620.0744481606</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5377,7 +5109,7 @@
         <v>474620.0744481606</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5575,7 +5307,7 @@
         <v>499619.6487481606</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5608,7 +5340,7 @@
         <v>496495.1456481606</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5641,7 +5373,7 @@
         <v>499206.1232481606</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5674,7 +5406,7 @@
         <v>475657.0380481606</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5740,7 +5472,7 @@
         <v>475657.0380481606</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5806,7 +5538,7 @@
         <v>471488.4877822903</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5905,7 +5637,7 @@
         <v>351862.6759822902</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5938,7 +5670,7 @@
         <v>351862.6759822902</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6070,7 +5802,7 @@
         <v>349368.4329822902</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6235,7 +5967,7 @@
         <v>347408.8715822902</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6268,7 +6000,7 @@
         <v>332437.3663822902</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6301,7 +6033,7 @@
         <v>321129.1039822902</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6477,6 +6209,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>323769.7806</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>310441.3008</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>276101.0903</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>278391.2431</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>280097.8367</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1380,7 +1342,7 @@
         <v>353507.1801</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1413,7 +1375,7 @@
         <v>349856.327</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1611,7 +1573,7 @@
         <v>318339.143</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1644,7 +1606,7 @@
         <v>318339.143</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3558,7 +3520,7 @@
         <v>509492.2438999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3591,7 +3553,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3624,7 +3586,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3657,7 +3619,7 @@
         <v>487536.2037</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3690,7 +3652,7 @@
         <v>480049.439</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3723,7 +3685,7 @@
         <v>470854.828</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3756,7 +3718,7 @@
         <v>477722.8808</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3789,7 +3751,7 @@
         <v>476703.282</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3822,7 +3784,7 @@
         <v>459161.6335</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3855,7 +3817,7 @@
         <v>421866.4096</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3888,7 +3850,7 @@
         <v>425376.4096</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3921,7 +3883,7 @@
         <v>423412.4096</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3954,7 +3916,7 @@
         <v>423512.7440481606</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3987,7 +3949,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4020,7 +3982,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4086,7 +4048,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4119,7 +4081,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4482,7 +4444,7 @@
         <v>399719.5271481606</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4548,7 +4510,7 @@
         <v>396976.5848481606</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4581,7 +4543,7 @@
         <v>396986.5848481606</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4614,7 +4576,7 @@
         <v>396996.5848481606</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4647,7 +4609,7 @@
         <v>397006.5848481606</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4680,7 +4642,7 @@
         <v>395235.0180481606</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4713,7 +4675,7 @@
         <v>395245.0180481606</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4746,7 +4708,7 @@
         <v>393745.0180481606</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4944,7 +4906,7 @@
         <v>465706.9686481606</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4977,7 +4939,7 @@
         <v>459977.9686481606</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5010,7 +4972,7 @@
         <v>459977.9686481606</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5043,7 +5005,7 @@
         <v>474620.0744481606</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5076,7 +5038,7 @@
         <v>474620.0744481606</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5109,7 +5071,7 @@
         <v>474620.0744481606</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5472,7 +5434,7 @@
         <v>475657.0380481606</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5967,7 +5929,7 @@
         <v>347408.8715822902</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6000,7 +5962,7 @@
         <v>332437.3663822902</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6033,7 +5995,7 @@
         <v>321129.1039822902</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6209,6 +6171,6 @@
       <c r="M175" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest POLY.xlsx
+++ b/BackTest/2019-10-26 BackTest POLY.xlsx
@@ -484,10 +484,14 @@
         <v>323769.7806</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>310441.3008</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>276101.0903</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>278391.2431</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.5</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,17 @@
         <v>280097.8367</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,19 @@
         <v>280097.8367</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1342,7 +1380,7 @@
         <v>353507.1801</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1413,7 @@
         <v>349856.327</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1573,7 +1611,7 @@
         <v>318339.143</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1644,7 @@
         <v>318339.143</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3355,7 +3393,7 @@
         <v>521685.9781999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3426,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3459,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3492,7 @@
         <v>528927.3080999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3525,7 @@
         <v>505320.7898999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3558,7 @@
         <v>509492.2438999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3591,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3624,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3657,7 @@
         <v>487536.2037</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3690,7 @@
         <v>480049.439</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3723,7 @@
         <v>470854.828</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3756,7 @@
         <v>477722.8808</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3789,7 @@
         <v>476703.282</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3822,7 @@
         <v>459161.6335</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3855,7 @@
         <v>421866.4096</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3888,7 @@
         <v>425376.4096</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3982,7 +4020,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4086,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4119,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4218,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4251,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4284,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4317,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4350,7 @@
         <v>421885.6183481606</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4383,7 @@
         <v>414198.0754481606</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4416,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4449,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
